--- a/INTLINE/data/193/ABS/5206041_Industry_Indexes.xlsx
+++ b/INTLINE/data/193/ABS/5206041_Industry_Indexes.xlsx
@@ -12,170 +12,170 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2298671X">Data1!$W$1:$W$10,Data1!$W$11:$W$200</definedName>
-    <definedName name="A2298671X_Data">Data1!$W$11:$W$200</definedName>
-    <definedName name="A2298671X_Latest">Data1!$W$200</definedName>
-    <definedName name="A2298672A">Data1!$AF$1:$AF$10,Data1!$AF$12:$AF$200</definedName>
-    <definedName name="A2298672A_Data">Data1!$AF$12:$AF$200</definedName>
-    <definedName name="A2298672A_Latest">Data1!$AF$200</definedName>
-    <definedName name="A2304531V">Data1!$E$1:$E$10,Data1!$E$11:$E$200</definedName>
-    <definedName name="A2304531V_Data">Data1!$E$11:$E$200</definedName>
-    <definedName name="A2304531V_Latest">Data1!$E$200</definedName>
-    <definedName name="A2304544F">Data1!$N$1:$N$10,Data1!$N$12:$N$200</definedName>
-    <definedName name="A2304544F_Data">Data1!$N$12:$N$200</definedName>
-    <definedName name="A2304544F_Latest">Data1!$N$200</definedName>
-    <definedName name="A2304557T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$200</definedName>
-    <definedName name="A2304557T_Data">Data1!$AO$11:$AO$200</definedName>
-    <definedName name="A2304557T_Latest">Data1!$AO$200</definedName>
-    <definedName name="A2304570K">Data1!$AX$1:$AX$10,Data1!$AX$12:$AX$200</definedName>
-    <definedName name="A2304570K_Data">Data1!$AX$12:$AX$200</definedName>
-    <definedName name="A2304570K_Latest">Data1!$AX$200</definedName>
-    <definedName name="A2716589X">Data1!$AC$1:$AC$10,Data1!$AC$12:$AC$200</definedName>
-    <definedName name="A2716589X_Data">Data1!$AC$12:$AC$200</definedName>
-    <definedName name="A2716589X_Latest">Data1!$AC$200</definedName>
-    <definedName name="A2716590J">Data1!$AD$1:$AD$10,Data1!$AD$12:$AD$200</definedName>
-    <definedName name="A2716590J_Data">Data1!$AD$12:$AD$200</definedName>
-    <definedName name="A2716590J_Latest">Data1!$AD$200</definedName>
-    <definedName name="A2716591K">Data1!$AG$1:$AG$10,Data1!$AG$24:$AG$200</definedName>
-    <definedName name="A2716591K_Data">Data1!$AG$24:$AG$200</definedName>
-    <definedName name="A2716591K_Latest">Data1!$AG$200</definedName>
-    <definedName name="A2716592L">Data1!$AI$1:$AI$10,Data1!$AI$24:$AI$200</definedName>
-    <definedName name="A2716592L_Data">Data1!$AI$24:$AI$200</definedName>
-    <definedName name="A2716592L_Latest">Data1!$AI$200</definedName>
-    <definedName name="A2716593R">Data1!$AJ$1:$AJ$10,Data1!$AJ$24:$AJ$200</definedName>
-    <definedName name="A2716593R_Data">Data1!$AJ$24:$AJ$200</definedName>
-    <definedName name="A2716593R_Latest">Data1!$AJ$200</definedName>
-    <definedName name="A2716595V">Data1!$AH$1:$AH$10,Data1!$AH$24:$AH$200</definedName>
-    <definedName name="A2716595V_Data">Data1!$AH$24:$AH$200</definedName>
-    <definedName name="A2716595V_Latest">Data1!$AH$200</definedName>
-    <definedName name="A2716599C">Data1!$AE$1:$AE$10,Data1!$AE$12:$AE$200</definedName>
-    <definedName name="A2716599C_Data">Data1!$AE$12:$AE$200</definedName>
-    <definedName name="A2716599C_Latest">Data1!$AE$200</definedName>
-    <definedName name="A2716600A">Data1!$T$1:$T$10,Data1!$T$11:$T$200</definedName>
-    <definedName name="A2716600A_Data">Data1!$T$11:$T$200</definedName>
-    <definedName name="A2716600A_Latest">Data1!$T$200</definedName>
-    <definedName name="A2716601C">Data1!$U$1:$U$10,Data1!$U$11:$U$200</definedName>
-    <definedName name="A2716601C_Data">Data1!$U$11:$U$200</definedName>
-    <definedName name="A2716601C_Latest">Data1!$U$200</definedName>
-    <definedName name="A2716602F">Data1!$X$1:$X$10,Data1!$X$23:$X$200</definedName>
-    <definedName name="A2716602F_Data">Data1!$X$23:$X$200</definedName>
-    <definedName name="A2716602F_Latest">Data1!$X$200</definedName>
-    <definedName name="A2716603J">Data1!$Z$1:$Z$10,Data1!$Z$23:$Z$200</definedName>
-    <definedName name="A2716603J_Data">Data1!$Z$23:$Z$200</definedName>
-    <definedName name="A2716603J_Latest">Data1!$Z$200</definedName>
-    <definedName name="A2716604K">Data1!$AA$1:$AA$10,Data1!$AA$23:$AA$200</definedName>
-    <definedName name="A2716604K_Data">Data1!$AA$23:$AA$200</definedName>
-    <definedName name="A2716604K_Latest">Data1!$AA$200</definedName>
-    <definedName name="A2716606R">Data1!$Y$1:$Y$10,Data1!$Y$23:$Y$200</definedName>
-    <definedName name="A2716606R_Data">Data1!$Y$23:$Y$200</definedName>
-    <definedName name="A2716606R_Latest">Data1!$Y$200</definedName>
-    <definedName name="A2716610F">Data1!$V$1:$V$10,Data1!$V$11:$V$200</definedName>
-    <definedName name="A2716610F_Data">Data1!$V$11:$V$200</definedName>
-    <definedName name="A2716610F_Latest">Data1!$V$200</definedName>
-    <definedName name="A3348517L">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$200</definedName>
-    <definedName name="A3348517L_Data">Data1!$AQ$23:$AQ$200</definedName>
-    <definedName name="A3348517L_Latest">Data1!$AQ$200</definedName>
-    <definedName name="A3348519T">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$200</definedName>
-    <definedName name="A3348519T_Data">Data1!$AR$23:$AR$200</definedName>
-    <definedName name="A3348519T_Latest">Data1!$AR$200</definedName>
-    <definedName name="A3348520A">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$200</definedName>
-    <definedName name="A3348520A_Data">Data1!$AS$23:$AS$200</definedName>
-    <definedName name="A3348520A_Latest">Data1!$AS$200</definedName>
-    <definedName name="A3348521C">Data1!$AU$1:$AU$10,Data1!$AU$24:$AU$200</definedName>
-    <definedName name="A3348521C_Data">Data1!$AU$24:$AU$200</definedName>
-    <definedName name="A3348521C_Latest">Data1!$AU$200</definedName>
-    <definedName name="A3348522F">Data1!$AV$1:$AV$10,Data1!$AV$24:$AV$200</definedName>
-    <definedName name="A3348522F_Data">Data1!$AV$24:$AV$200</definedName>
-    <definedName name="A3348522F_Latest">Data1!$AV$200</definedName>
-    <definedName name="A3348523J">Data1!$AW$1:$AW$10,Data1!$AW$24:$AW$200</definedName>
-    <definedName name="A3348523J_Data">Data1!$AW$24:$AW$200</definedName>
-    <definedName name="A3348523J_Latest">Data1!$AW$200</definedName>
-    <definedName name="A3348524K">Data1!$AY$1:$AY$10,Data1!$AY$24:$AY$200</definedName>
-    <definedName name="A3348524K_Data">Data1!$AY$24:$AY$200</definedName>
-    <definedName name="A3348524K_Latest">Data1!$AY$200</definedName>
-    <definedName name="A3348528V">Data1!$AZ$1:$AZ$10,Data1!$AZ$24:$AZ$200</definedName>
-    <definedName name="A3348528V_Data">Data1!$AZ$24:$AZ$200</definedName>
-    <definedName name="A3348528V_Latest">Data1!$AZ$200</definedName>
-    <definedName name="A3348530F">Data1!$BA$1:$BA$10,Data1!$BA$24:$BA$200</definedName>
-    <definedName name="A3348530F_Data">Data1!$BA$24:$BA$200</definedName>
-    <definedName name="A3348530F_Latest">Data1!$BA$200</definedName>
-    <definedName name="A3348531J">Data1!$BB$1:$BB$10,Data1!$BB$24:$BB$200</definedName>
-    <definedName name="A3348531J_Data">Data1!$BB$24:$BB$200</definedName>
-    <definedName name="A3348531J_Latest">Data1!$BB$200</definedName>
-    <definedName name="A3348532K">Data1!$B$1:$B$10,Data1!$B$11:$B$200</definedName>
-    <definedName name="A3348532K_Data">Data1!$B$11:$B$200</definedName>
-    <definedName name="A3348532K_Latest">Data1!$B$200</definedName>
-    <definedName name="A3348533L">Data1!$D$1:$D$10,Data1!$D$11:$D$200</definedName>
-    <definedName name="A3348533L_Data">Data1!$D$11:$D$200</definedName>
-    <definedName name="A3348533L_Latest">Data1!$D$200</definedName>
-    <definedName name="A3348534R">Data1!$F$1:$F$10,Data1!$F$23:$F$200</definedName>
-    <definedName name="A3348534R_Data">Data1!$F$23:$F$200</definedName>
-    <definedName name="A3348534R_Latest">Data1!$F$200</definedName>
-    <definedName name="A3348535T">Data1!$C$1:$C$10,Data1!$C$11:$C$200</definedName>
-    <definedName name="A3348535T_Data">Data1!$C$11:$C$200</definedName>
-    <definedName name="A3348535T_Latest">Data1!$C$200</definedName>
-    <definedName name="A3348540K">Data1!$H$1:$H$10,Data1!$H$23:$H$200</definedName>
-    <definedName name="A3348540K_Data">Data1!$H$23:$H$200</definedName>
-    <definedName name="A3348540K_Latest">Data1!$H$200</definedName>
-    <definedName name="A3348541L">Data1!$G$1:$G$10,Data1!$G$23:$G$200</definedName>
-    <definedName name="A3348541L_Data">Data1!$G$23:$G$200</definedName>
-    <definedName name="A3348541L_Latest">Data1!$G$200</definedName>
-    <definedName name="A3348542R">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$200</definedName>
-    <definedName name="A3348542R_Data">Data1!$AM$23:$AM$200</definedName>
-    <definedName name="A3348542R_Latest">Data1!$AM$200</definedName>
-    <definedName name="A3348543T">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$200</definedName>
-    <definedName name="A3348543T_Data">Data1!$AN$23:$AN$200</definedName>
-    <definedName name="A3348543T_Latest">Data1!$AN$200</definedName>
-    <definedName name="A3348544V">Data1!$I$1:$I$10,Data1!$I$23:$I$200</definedName>
-    <definedName name="A3348544V_Data">Data1!$I$23:$I$200</definedName>
-    <definedName name="A3348544V_Latest">Data1!$I$200</definedName>
-    <definedName name="A3348545W">Data1!$K$1:$K$10,Data1!$K$24:$K$200</definedName>
-    <definedName name="A3348545W_Data">Data1!$K$24:$K$200</definedName>
-    <definedName name="A3348545W_Latest">Data1!$K$200</definedName>
-    <definedName name="A3348546X">Data1!$L$1:$L$10,Data1!$L$24:$L$200</definedName>
-    <definedName name="A3348546X_Data">Data1!$L$24:$L$200</definedName>
-    <definedName name="A3348546X_Latest">Data1!$L$200</definedName>
-    <definedName name="A3348547A">Data1!$M$1:$M$10,Data1!$M$24:$M$200</definedName>
-    <definedName name="A3348547A_Data">Data1!$M$24:$M$200</definedName>
-    <definedName name="A3348547A_Latest">Data1!$M$200</definedName>
-    <definedName name="A3348548C">Data1!$O$1:$O$10,Data1!$O$24:$O$200</definedName>
-    <definedName name="A3348548C_Data">Data1!$O$24:$O$200</definedName>
-    <definedName name="A3348548C_Latest">Data1!$O$200</definedName>
-    <definedName name="A3348552V">Data1!$P$1:$P$10,Data1!$P$24:$P$200</definedName>
-    <definedName name="A3348552V_Data">Data1!$P$24:$P$200</definedName>
-    <definedName name="A3348552V_Latest">Data1!$P$200</definedName>
-    <definedName name="A3348554X">Data1!$Q$1:$Q$10,Data1!$Q$24:$Q$200</definedName>
-    <definedName name="A3348554X_Data">Data1!$Q$24:$Q$200</definedName>
-    <definedName name="A3348554X_Latest">Data1!$Q$200</definedName>
-    <definedName name="A3348555A">Data1!$R$1:$R$10,Data1!$R$24:$R$200</definedName>
-    <definedName name="A3348555A_Data">Data1!$R$24:$R$200</definedName>
-    <definedName name="A3348555A_Latest">Data1!$R$200</definedName>
-    <definedName name="A3348556C">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$200</definedName>
-    <definedName name="A3348556C_Data">Data1!$AL$23:$AL$200</definedName>
-    <definedName name="A3348556C_Latest">Data1!$AL$200</definedName>
-    <definedName name="A3348557F">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$200</definedName>
-    <definedName name="A3348557F_Data">Data1!$AP$23:$AP$200</definedName>
-    <definedName name="A3348557F_Latest">Data1!$AP$200</definedName>
-    <definedName name="A85231778T">Data1!$J$1:$J$10,Data1!$J$59:$J$200</definedName>
-    <definedName name="A85231778T_Data">Data1!$J$59:$J$200</definedName>
-    <definedName name="A85231778T_Latest">Data1!$J$200</definedName>
-    <definedName name="A85231779V">Data1!$S$1:$S$10,Data1!$S$60:$S$200</definedName>
-    <definedName name="A85231779V_Data">Data1!$S$60:$S$200</definedName>
-    <definedName name="A85231779V_Latest">Data1!$S$200</definedName>
-    <definedName name="A85231780C">Data1!$AB$1:$AB$10,Data1!$AB$59:$AB$200</definedName>
-    <definedName name="A85231780C_Data">Data1!$AB$59:$AB$200</definedName>
-    <definedName name="A85231780C_Latest">Data1!$AB$200</definedName>
-    <definedName name="A85231781F">Data1!$AK$1:$AK$10,Data1!$AK$60:$AK$200</definedName>
-    <definedName name="A85231781F_Data">Data1!$AK$60:$AK$200</definedName>
-    <definedName name="A85231781F_Latest">Data1!$AK$200</definedName>
-    <definedName name="A85231782J">Data1!$AT$1:$AT$10,Data1!$AT$59:$AT$200</definedName>
-    <definedName name="A85231782J_Data">Data1!$AT$59:$AT$200</definedName>
-    <definedName name="A85231782J_Latest">Data1!$AT$200</definedName>
-    <definedName name="A85231783K">Data1!$BC$1:$BC$10,Data1!$BC$60:$BC$200</definedName>
-    <definedName name="A85231783K_Data">Data1!$BC$60:$BC$200</definedName>
-    <definedName name="A85231783K_Latest">Data1!$BC$200</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$200</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$200</definedName>
+    <definedName name="A2298671X">Data1!$W$1:$W$10,Data1!$W$11:$W$201</definedName>
+    <definedName name="A2298671X_Data">Data1!$W$11:$W$201</definedName>
+    <definedName name="A2298671X_Latest">Data1!$W$201</definedName>
+    <definedName name="A2298672A">Data1!$AF$1:$AF$10,Data1!$AF$12:$AF$201</definedName>
+    <definedName name="A2298672A_Data">Data1!$AF$12:$AF$201</definedName>
+    <definedName name="A2298672A_Latest">Data1!$AF$201</definedName>
+    <definedName name="A2304531V">Data1!$E$1:$E$10,Data1!$E$11:$E$201</definedName>
+    <definedName name="A2304531V_Data">Data1!$E$11:$E$201</definedName>
+    <definedName name="A2304531V_Latest">Data1!$E$201</definedName>
+    <definedName name="A2304544F">Data1!$N$1:$N$10,Data1!$N$12:$N$201</definedName>
+    <definedName name="A2304544F_Data">Data1!$N$12:$N$201</definedName>
+    <definedName name="A2304544F_Latest">Data1!$N$201</definedName>
+    <definedName name="A2304557T">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$201</definedName>
+    <definedName name="A2304557T_Data">Data1!$AO$11:$AO$201</definedName>
+    <definedName name="A2304557T_Latest">Data1!$AO$201</definedName>
+    <definedName name="A2304570K">Data1!$AX$1:$AX$10,Data1!$AX$12:$AX$201</definedName>
+    <definedName name="A2304570K_Data">Data1!$AX$12:$AX$201</definedName>
+    <definedName name="A2304570K_Latest">Data1!$AX$201</definedName>
+    <definedName name="A2716589X">Data1!$AC$1:$AC$10,Data1!$AC$12:$AC$201</definedName>
+    <definedName name="A2716589X_Data">Data1!$AC$12:$AC$201</definedName>
+    <definedName name="A2716589X_Latest">Data1!$AC$201</definedName>
+    <definedName name="A2716590J">Data1!$AD$1:$AD$10,Data1!$AD$12:$AD$201</definedName>
+    <definedName name="A2716590J_Data">Data1!$AD$12:$AD$201</definedName>
+    <definedName name="A2716590J_Latest">Data1!$AD$201</definedName>
+    <definedName name="A2716591K">Data1!$AG$1:$AG$10,Data1!$AG$24:$AG$201</definedName>
+    <definedName name="A2716591K_Data">Data1!$AG$24:$AG$201</definedName>
+    <definedName name="A2716591K_Latest">Data1!$AG$201</definedName>
+    <definedName name="A2716592L">Data1!$AI$1:$AI$10,Data1!$AI$24:$AI$201</definedName>
+    <definedName name="A2716592L_Data">Data1!$AI$24:$AI$201</definedName>
+    <definedName name="A2716592L_Latest">Data1!$AI$201</definedName>
+    <definedName name="A2716593R">Data1!$AJ$1:$AJ$10,Data1!$AJ$24:$AJ$201</definedName>
+    <definedName name="A2716593R_Data">Data1!$AJ$24:$AJ$201</definedName>
+    <definedName name="A2716593R_Latest">Data1!$AJ$201</definedName>
+    <definedName name="A2716595V">Data1!$AH$1:$AH$10,Data1!$AH$24:$AH$201</definedName>
+    <definedName name="A2716595V_Data">Data1!$AH$24:$AH$201</definedName>
+    <definedName name="A2716595V_Latest">Data1!$AH$201</definedName>
+    <definedName name="A2716599C">Data1!$AE$1:$AE$10,Data1!$AE$12:$AE$201</definedName>
+    <definedName name="A2716599C_Data">Data1!$AE$12:$AE$201</definedName>
+    <definedName name="A2716599C_Latest">Data1!$AE$201</definedName>
+    <definedName name="A2716600A">Data1!$T$1:$T$10,Data1!$T$11:$T$201</definedName>
+    <definedName name="A2716600A_Data">Data1!$T$11:$T$201</definedName>
+    <definedName name="A2716600A_Latest">Data1!$T$201</definedName>
+    <definedName name="A2716601C">Data1!$U$1:$U$10,Data1!$U$11:$U$201</definedName>
+    <definedName name="A2716601C_Data">Data1!$U$11:$U$201</definedName>
+    <definedName name="A2716601C_Latest">Data1!$U$201</definedName>
+    <definedName name="A2716602F">Data1!$X$1:$X$10,Data1!$X$23:$X$201</definedName>
+    <definedName name="A2716602F_Data">Data1!$X$23:$X$201</definedName>
+    <definedName name="A2716602F_Latest">Data1!$X$201</definedName>
+    <definedName name="A2716603J">Data1!$Z$1:$Z$10,Data1!$Z$23:$Z$201</definedName>
+    <definedName name="A2716603J_Data">Data1!$Z$23:$Z$201</definedName>
+    <definedName name="A2716603J_Latest">Data1!$Z$201</definedName>
+    <definedName name="A2716604K">Data1!$AA$1:$AA$10,Data1!$AA$23:$AA$201</definedName>
+    <definedName name="A2716604K_Data">Data1!$AA$23:$AA$201</definedName>
+    <definedName name="A2716604K_Latest">Data1!$AA$201</definedName>
+    <definedName name="A2716606R">Data1!$Y$1:$Y$10,Data1!$Y$23:$Y$201</definedName>
+    <definedName name="A2716606R_Data">Data1!$Y$23:$Y$201</definedName>
+    <definedName name="A2716606R_Latest">Data1!$Y$201</definedName>
+    <definedName name="A2716610F">Data1!$V$1:$V$10,Data1!$V$11:$V$201</definedName>
+    <definedName name="A2716610F_Data">Data1!$V$11:$V$201</definedName>
+    <definedName name="A2716610F_Latest">Data1!$V$201</definedName>
+    <definedName name="A3348517L">Data1!$AQ$1:$AQ$10,Data1!$AQ$23:$AQ$201</definedName>
+    <definedName name="A3348517L_Data">Data1!$AQ$23:$AQ$201</definedName>
+    <definedName name="A3348517L_Latest">Data1!$AQ$201</definedName>
+    <definedName name="A3348519T">Data1!$AR$1:$AR$10,Data1!$AR$23:$AR$201</definedName>
+    <definedName name="A3348519T_Data">Data1!$AR$23:$AR$201</definedName>
+    <definedName name="A3348519T_Latest">Data1!$AR$201</definedName>
+    <definedName name="A3348520A">Data1!$AS$1:$AS$10,Data1!$AS$23:$AS$201</definedName>
+    <definedName name="A3348520A_Data">Data1!$AS$23:$AS$201</definedName>
+    <definedName name="A3348520A_Latest">Data1!$AS$201</definedName>
+    <definedName name="A3348521C">Data1!$AU$1:$AU$10,Data1!$AU$24:$AU$201</definedName>
+    <definedName name="A3348521C_Data">Data1!$AU$24:$AU$201</definedName>
+    <definedName name="A3348521C_Latest">Data1!$AU$201</definedName>
+    <definedName name="A3348522F">Data1!$AV$1:$AV$10,Data1!$AV$24:$AV$201</definedName>
+    <definedName name="A3348522F_Data">Data1!$AV$24:$AV$201</definedName>
+    <definedName name="A3348522F_Latest">Data1!$AV$201</definedName>
+    <definedName name="A3348523J">Data1!$AW$1:$AW$10,Data1!$AW$24:$AW$201</definedName>
+    <definedName name="A3348523J_Data">Data1!$AW$24:$AW$201</definedName>
+    <definedName name="A3348523J_Latest">Data1!$AW$201</definedName>
+    <definedName name="A3348524K">Data1!$AY$1:$AY$10,Data1!$AY$24:$AY$201</definedName>
+    <definedName name="A3348524K_Data">Data1!$AY$24:$AY$201</definedName>
+    <definedName name="A3348524K_Latest">Data1!$AY$201</definedName>
+    <definedName name="A3348528V">Data1!$AZ$1:$AZ$10,Data1!$AZ$24:$AZ$201</definedName>
+    <definedName name="A3348528V_Data">Data1!$AZ$24:$AZ$201</definedName>
+    <definedName name="A3348528V_Latest">Data1!$AZ$201</definedName>
+    <definedName name="A3348530F">Data1!$BA$1:$BA$10,Data1!$BA$24:$BA$201</definedName>
+    <definedName name="A3348530F_Data">Data1!$BA$24:$BA$201</definedName>
+    <definedName name="A3348530F_Latest">Data1!$BA$201</definedName>
+    <definedName name="A3348531J">Data1!$BB$1:$BB$10,Data1!$BB$24:$BB$201</definedName>
+    <definedName name="A3348531J_Data">Data1!$BB$24:$BB$201</definedName>
+    <definedName name="A3348531J_Latest">Data1!$BB$201</definedName>
+    <definedName name="A3348532K">Data1!$B$1:$B$10,Data1!$B$11:$B$201</definedName>
+    <definedName name="A3348532K_Data">Data1!$B$11:$B$201</definedName>
+    <definedName name="A3348532K_Latest">Data1!$B$201</definedName>
+    <definedName name="A3348533L">Data1!$D$1:$D$10,Data1!$D$11:$D$201</definedName>
+    <definedName name="A3348533L_Data">Data1!$D$11:$D$201</definedName>
+    <definedName name="A3348533L_Latest">Data1!$D$201</definedName>
+    <definedName name="A3348534R">Data1!$F$1:$F$10,Data1!$F$23:$F$201</definedName>
+    <definedName name="A3348534R_Data">Data1!$F$23:$F$201</definedName>
+    <definedName name="A3348534R_Latest">Data1!$F$201</definedName>
+    <definedName name="A3348535T">Data1!$C$1:$C$10,Data1!$C$11:$C$201</definedName>
+    <definedName name="A3348535T_Data">Data1!$C$11:$C$201</definedName>
+    <definedName name="A3348535T_Latest">Data1!$C$201</definedName>
+    <definedName name="A3348540K">Data1!$H$1:$H$10,Data1!$H$23:$H$201</definedName>
+    <definedName name="A3348540K_Data">Data1!$H$23:$H$201</definedName>
+    <definedName name="A3348540K_Latest">Data1!$H$201</definedName>
+    <definedName name="A3348541L">Data1!$G$1:$G$10,Data1!$G$23:$G$201</definedName>
+    <definedName name="A3348541L_Data">Data1!$G$23:$G$201</definedName>
+    <definedName name="A3348541L_Latest">Data1!$G$201</definedName>
+    <definedName name="A3348542R">Data1!$AM$1:$AM$10,Data1!$AM$23:$AM$201</definedName>
+    <definedName name="A3348542R_Data">Data1!$AM$23:$AM$201</definedName>
+    <definedName name="A3348542R_Latest">Data1!$AM$201</definedName>
+    <definedName name="A3348543T">Data1!$AN$1:$AN$10,Data1!$AN$23:$AN$201</definedName>
+    <definedName name="A3348543T_Data">Data1!$AN$23:$AN$201</definedName>
+    <definedName name="A3348543T_Latest">Data1!$AN$201</definedName>
+    <definedName name="A3348544V">Data1!$I$1:$I$10,Data1!$I$23:$I$201</definedName>
+    <definedName name="A3348544V_Data">Data1!$I$23:$I$201</definedName>
+    <definedName name="A3348544V_Latest">Data1!$I$201</definedName>
+    <definedName name="A3348545W">Data1!$K$1:$K$10,Data1!$K$24:$K$201</definedName>
+    <definedName name="A3348545W_Data">Data1!$K$24:$K$201</definedName>
+    <definedName name="A3348545W_Latest">Data1!$K$201</definedName>
+    <definedName name="A3348546X">Data1!$L$1:$L$10,Data1!$L$24:$L$201</definedName>
+    <definedName name="A3348546X_Data">Data1!$L$24:$L$201</definedName>
+    <definedName name="A3348546X_Latest">Data1!$L$201</definedName>
+    <definedName name="A3348547A">Data1!$M$1:$M$10,Data1!$M$24:$M$201</definedName>
+    <definedName name="A3348547A_Data">Data1!$M$24:$M$201</definedName>
+    <definedName name="A3348547A_Latest">Data1!$M$201</definedName>
+    <definedName name="A3348548C">Data1!$O$1:$O$10,Data1!$O$24:$O$201</definedName>
+    <definedName name="A3348548C_Data">Data1!$O$24:$O$201</definedName>
+    <definedName name="A3348548C_Latest">Data1!$O$201</definedName>
+    <definedName name="A3348552V">Data1!$P$1:$P$10,Data1!$P$24:$P$201</definedName>
+    <definedName name="A3348552V_Data">Data1!$P$24:$P$201</definedName>
+    <definedName name="A3348552V_Latest">Data1!$P$201</definedName>
+    <definedName name="A3348554X">Data1!$Q$1:$Q$10,Data1!$Q$24:$Q$201</definedName>
+    <definedName name="A3348554X_Data">Data1!$Q$24:$Q$201</definedName>
+    <definedName name="A3348554X_Latest">Data1!$Q$201</definedName>
+    <definedName name="A3348555A">Data1!$R$1:$R$10,Data1!$R$24:$R$201</definedName>
+    <definedName name="A3348555A_Data">Data1!$R$24:$R$201</definedName>
+    <definedName name="A3348555A_Latest">Data1!$R$201</definedName>
+    <definedName name="A3348556C">Data1!$AL$1:$AL$10,Data1!$AL$23:$AL$201</definedName>
+    <definedName name="A3348556C_Data">Data1!$AL$23:$AL$201</definedName>
+    <definedName name="A3348556C_Latest">Data1!$AL$201</definedName>
+    <definedName name="A3348557F">Data1!$AP$1:$AP$10,Data1!$AP$23:$AP$201</definedName>
+    <definedName name="A3348557F_Data">Data1!$AP$23:$AP$201</definedName>
+    <definedName name="A3348557F_Latest">Data1!$AP$201</definedName>
+    <definedName name="A85231778T">Data1!$J$1:$J$10,Data1!$J$59:$J$201</definedName>
+    <definedName name="A85231778T_Data">Data1!$J$59:$J$201</definedName>
+    <definedName name="A85231778T_Latest">Data1!$J$201</definedName>
+    <definedName name="A85231779V">Data1!$S$1:$S$10,Data1!$S$60:$S$201</definedName>
+    <definedName name="A85231779V_Data">Data1!$S$60:$S$201</definedName>
+    <definedName name="A85231779V_Latest">Data1!$S$201</definedName>
+    <definedName name="A85231780C">Data1!$AB$1:$AB$10,Data1!$AB$59:$AB$201</definedName>
+    <definedName name="A85231780C_Data">Data1!$AB$59:$AB$201</definedName>
+    <definedName name="A85231780C_Latest">Data1!$AB$201</definedName>
+    <definedName name="A85231781F">Data1!$AK$1:$AK$10,Data1!$AK$60:$AK$201</definedName>
+    <definedName name="A85231781F_Data">Data1!$AK$60:$AK$201</definedName>
+    <definedName name="A85231781F_Latest">Data1!$AK$201</definedName>
+    <definedName name="A85231782J">Data1!$AT$1:$AT$10,Data1!$AT$59:$AT$201</definedName>
+    <definedName name="A85231782J_Data">Data1!$AT$59:$AT$201</definedName>
+    <definedName name="A85231782J_Latest">Data1!$AT$201</definedName>
+    <definedName name="A85231783K">Data1!$BC$1:$BC$10,Data1!$BC$60:$BC$201</definedName>
+    <definedName name="A85231783K_Data">Data1!$BC$60:$BC$201</definedName>
+    <definedName name="A85231783K_Latest">Data1!$BC$201</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$201</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$201</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2812,6 +2812,240 @@
         </r>
       </text>
     </comment>
+    <comment ref="B201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -3842,10 +4076,10 @@
         <v>27273</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>27</v>
@@ -3874,10 +4108,10 @@
         <v>27273</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>27</v>
@@ -3906,10 +4140,10 @@
         <v>27273</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>27</v>
@@ -3938,10 +4172,10 @@
         <v>27273</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>27</v>
@@ -3970,10 +4204,10 @@
         <v>28369</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>27</v>
@@ -4002,10 +4236,10 @@
         <v>28369</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>27</v>
@@ -4034,10 +4268,10 @@
         <v>28369</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>27</v>
@@ -4066,10 +4300,10 @@
         <v>28369</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>27</v>
@@ -4098,10 +4332,10 @@
         <v>31656</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>27</v>
@@ -4130,10 +4364,10 @@
         <v>28460</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>40</v>
@@ -4162,10 +4396,10 @@
         <v>28460</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>40</v>
@@ -4194,10 +4428,10 @@
         <v>28460</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>40</v>
@@ -4226,10 +4460,10 @@
         <v>27364</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>40</v>
@@ -4258,10 +4492,10 @@
         <v>28460</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>40</v>
@@ -4290,10 +4524,10 @@
         <v>28460</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>40</v>
@@ -4322,10 +4556,10 @@
         <v>28460</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>40</v>
@@ -4354,10 +4588,10 @@
         <v>28460</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>40</v>
@@ -4386,10 +4620,10 @@
         <v>31747</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>40</v>
@@ -4418,10 +4652,10 @@
         <v>27273</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>27</v>
@@ -4450,10 +4684,10 @@
         <v>27273</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>27</v>
@@ -4482,10 +4716,10 @@
         <v>27273</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>27</v>
@@ -4514,10 +4748,10 @@
         <v>27273</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>27</v>
@@ -4546,10 +4780,10 @@
         <v>28369</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>27</v>
@@ -4578,10 +4812,10 @@
         <v>28369</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>27</v>
@@ -4610,10 +4844,10 @@
         <v>28369</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>27</v>
@@ -4642,10 +4876,10 @@
         <v>28369</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>27</v>
@@ -4674,10 +4908,10 @@
         <v>31656</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>27</v>
@@ -4706,10 +4940,10 @@
         <v>27364</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>40</v>
@@ -4738,10 +4972,10 @@
         <v>27364</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>40</v>
@@ -4770,10 +5004,10 @@
         <v>27364</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>40</v>
@@ -4802,10 +5036,10 @@
         <v>27364</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>40</v>
@@ -4834,10 +5068,10 @@
         <v>28460</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>40</v>
@@ -4866,10 +5100,10 @@
         <v>28460</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>40</v>
@@ -4898,10 +5132,10 @@
         <v>28460</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>40</v>
@@ -4930,10 +5164,10 @@
         <v>28460</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>40</v>
@@ -4962,10 +5196,10 @@
         <v>31747</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>40</v>
@@ -4994,10 +5228,10 @@
         <v>28369</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>27</v>
@@ -5026,10 +5260,10 @@
         <v>28369</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>27</v>
@@ -5058,10 +5292,10 @@
         <v>28369</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>27</v>
@@ -5090,10 +5324,10 @@
         <v>27273</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>27</v>
@@ -5122,10 +5356,10 @@
         <v>28369</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>27</v>
@@ -5154,10 +5388,10 @@
         <v>28369</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>27</v>
@@ -5186,10 +5420,10 @@
         <v>28369</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>27</v>
@@ -5218,10 +5452,10 @@
         <v>28369</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>27</v>
@@ -5250,10 +5484,10 @@
         <v>31656</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>27</v>
@@ -5282,10 +5516,10 @@
         <v>28460</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>40</v>
@@ -5314,10 +5548,10 @@
         <v>28460</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>40</v>
@@ -5346,10 +5580,10 @@
         <v>28460</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>40</v>
@@ -5378,10 +5612,10 @@
         <v>27364</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>40</v>
@@ -5410,10 +5644,10 @@
         <v>28460</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>40</v>
@@ -5442,10 +5676,10 @@
         <v>28460</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>40</v>
@@ -5474,10 +5708,10 @@
         <v>28460</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>40</v>
@@ -5506,10 +5740,10 @@
         <v>28460</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>40</v>
@@ -5538,10 +5772,10 @@
         <v>31747</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>40</v>
@@ -5630,7 +5864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC200"/>
+  <dimension ref="A1:BC201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6815,166 +7049,166 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
@@ -6982,166 +7216,166 @@
         <v>25</v>
       </c>
       <c r="B9" s="1">
+        <v>191</v>
+      </c>
+      <c r="C9" s="1">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1">
+        <v>191</v>
+      </c>
+      <c r="E9" s="1">
+        <v>191</v>
+      </c>
+      <c r="F9" s="1">
+        <v>179</v>
+      </c>
+      <c r="G9" s="1">
+        <v>179</v>
+      </c>
+      <c r="H9" s="1">
+        <v>179</v>
+      </c>
+      <c r="I9" s="1">
+        <v>179</v>
+      </c>
+      <c r="J9" s="1">
+        <v>143</v>
+      </c>
+      <c r="K9" s="1">
+        <v>178</v>
+      </c>
+      <c r="L9" s="1">
+        <v>178</v>
+      </c>
+      <c r="M9" s="1">
+        <v>178</v>
+      </c>
+      <c r="N9" s="1">
         <v>190</v>
       </c>
-      <c r="C9" s="1">
+      <c r="O9" s="1">
+        <v>178</v>
+      </c>
+      <c r="P9" s="1">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>178</v>
+      </c>
+      <c r="R9" s="1">
+        <v>178</v>
+      </c>
+      <c r="S9" s="1">
+        <v>142</v>
+      </c>
+      <c r="T9" s="1">
+        <v>191</v>
+      </c>
+      <c r="U9" s="1">
+        <v>191</v>
+      </c>
+      <c r="V9" s="1">
+        <v>191</v>
+      </c>
+      <c r="W9" s="1">
+        <v>191</v>
+      </c>
+      <c r="X9" s="1">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>143</v>
+      </c>
+      <c r="AC9" s="1">
         <v>190</v>
       </c>
-      <c r="D9" s="1">
+      <c r="AD9" s="1">
         <v>190</v>
       </c>
-      <c r="E9" s="1">
+      <c r="AE9" s="1">
         <v>190</v>
       </c>
-      <c r="F9" s="1">
+      <c r="AF9" s="1">
+        <v>190</v>
+      </c>
+      <c r="AG9" s="1">
         <v>178</v>
       </c>
-      <c r="G9" s="1">
+      <c r="AH9" s="1">
         <v>178</v>
       </c>
-      <c r="H9" s="1">
+      <c r="AI9" s="1">
         <v>178</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AJ9" s="1">
         <v>178</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AK9" s="1">
         <v>142</v>
       </c>
-      <c r="K9" s="1">
-        <v>177</v>
-      </c>
-      <c r="L9" s="1">
-        <v>177</v>
-      </c>
-      <c r="M9" s="1">
-        <v>177</v>
-      </c>
-      <c r="N9" s="1">
-        <v>189</v>
-      </c>
-      <c r="O9" s="1">
-        <v>177</v>
-      </c>
-      <c r="P9" s="1">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>177</v>
-      </c>
-      <c r="R9" s="1">
-        <v>177</v>
-      </c>
-      <c r="S9" s="1">
-        <v>141</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="AL9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>191</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>179</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>143</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>178</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>178</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>178</v>
+      </c>
+      <c r="AX9" s="1">
         <v>190</v>
       </c>
-      <c r="U9" s="1">
-        <v>190</v>
-      </c>
-      <c r="V9" s="1">
-        <v>190</v>
-      </c>
-      <c r="W9" s="1">
-        <v>190</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="AY9" s="1">
         <v>178</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AZ9" s="1">
         <v>178</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="BA9" s="1">
         <v>178</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="BB9" s="1">
         <v>178</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="BC9" s="1">
         <v>142</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>189</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>189</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>189</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>189</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>141</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>190</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>178</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>142</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>189</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>177</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>177</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>177</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>177</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
@@ -7407,7 +7641,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="E13" s="8">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N13" s="8">
         <v>-3.2</v>
@@ -8011,7 +8245,7 @@
         <v>71.2</v>
       </c>
       <c r="H24" s="8">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="I24" s="8">
         <v>60.8</v>
@@ -8160,7 +8394,7 @@
         <v>72.5</v>
       </c>
       <c r="H25" s="8">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="I25" s="8">
         <v>60.8</v>
@@ -9048,7 +9282,7 @@
         <v>37.9</v>
       </c>
       <c r="F31" s="8">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
       <c r="G31" s="8">
         <v>78.599999999999994</v>
@@ -9352,7 +9586,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="H33" s="8">
-        <v>60.4</v>
+        <v>60.3</v>
       </c>
       <c r="I33" s="8">
         <v>66.099999999999994</v>
@@ -9498,7 +9732,7 @@
         <v>59.2</v>
       </c>
       <c r="G34" s="8">
-        <v>78.5</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="H34" s="8">
         <v>59.9</v>
@@ -10091,7 +10325,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="F38" s="8">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="G38" s="8">
         <v>81.5</v>
@@ -10389,7 +10623,7 @@
         <v>39.6</v>
       </c>
       <c r="F40" s="8">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="G40" s="8">
         <v>83.1</v>
@@ -10842,7 +11076,7 @@
         <v>80.3</v>
       </c>
       <c r="H43" s="8">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
       <c r="I43" s="8">
         <v>68.7</v>
@@ -11435,7 +11669,7 @@
         <v>57.3</v>
       </c>
       <c r="G47" s="8">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="H47" s="8">
         <v>56.2</v>
@@ -12922,7 +13156,7 @@
         <v>42.1</v>
       </c>
       <c r="F57" s="8">
-        <v>57.9</v>
+        <v>58</v>
       </c>
       <c r="G57" s="8">
         <v>83.5</v>
@@ -13220,7 +13454,7 @@
         <v>41.8</v>
       </c>
       <c r="F59" s="8">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="G59" s="8">
         <v>84.4</v>
@@ -13232,7 +13466,7 @@
         <v>63.3</v>
       </c>
       <c r="J59" s="8">
-        <v>94.2</v>
+        <v>93.3</v>
       </c>
       <c r="K59" s="8">
         <v>-1.7</v>
@@ -13384,13 +13618,13 @@
         <v>86.5</v>
       </c>
       <c r="H60" s="8">
-        <v>62.1</v>
+        <v>62</v>
       </c>
       <c r="I60" s="8">
         <v>64.099999999999994</v>
       </c>
       <c r="J60" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K60" s="8">
         <v>2.4</v>
@@ -13545,10 +13779,10 @@
         <v>42.9</v>
       </c>
       <c r="F61" s="8">
-        <v>61.7</v>
+        <v>61.8</v>
       </c>
       <c r="G61" s="8">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="H61" s="8">
         <v>63.5</v>
@@ -13557,7 +13791,7 @@
         <v>64.7</v>
       </c>
       <c r="J61" s="8">
-        <v>95.8</v>
+        <v>94.8</v>
       </c>
       <c r="K61" s="8">
         <v>3.5</v>
@@ -13724,7 +13958,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="J62" s="8">
-        <v>96.7</v>
+        <v>95.7</v>
       </c>
       <c r="K62" s="8">
         <v>4.4000000000000004</v>
@@ -13882,7 +14116,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="G63" s="8">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="H63" s="8">
         <v>66.900000000000006</v>
@@ -13891,7 +14125,7 @@
         <v>66.3</v>
       </c>
       <c r="J63" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K63" s="8">
         <v>5.8</v>
@@ -14058,7 +14292,7 @@
         <v>67.2</v>
       </c>
       <c r="J64" s="8">
-        <v>99.4</v>
+        <v>98.4</v>
       </c>
       <c r="K64" s="8">
         <v>5.5</v>
@@ -14216,7 +14450,7 @@
         <v>65.5</v>
       </c>
       <c r="G65" s="8">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="H65" s="8">
         <v>67.900000000000006</v>
@@ -14225,7 +14459,7 @@
         <v>68.8</v>
       </c>
       <c r="J65" s="8">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="K65" s="8">
         <v>2.1</v>
@@ -14383,7 +14617,7 @@
         <v>65.8</v>
       </c>
       <c r="G66" s="8">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="H66" s="8">
         <v>67.7</v>
@@ -14392,7 +14626,7 @@
         <v>70.900000000000006</v>
       </c>
       <c r="J66" s="8">
-        <v>101.7</v>
+        <v>100.6</v>
       </c>
       <c r="K66" s="8">
         <v>-0.2</v>
@@ -14559,7 +14793,7 @@
         <v>72.2</v>
       </c>
       <c r="J67" s="8">
-        <v>102.7</v>
+        <v>101.7</v>
       </c>
       <c r="K67" s="8">
         <v>0.1</v>
@@ -14720,13 +14954,13 @@
         <v>95</v>
       </c>
       <c r="H68" s="8">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="I68" s="8">
         <v>73.599999999999994</v>
       </c>
       <c r="J68" s="8">
-        <v>104.1</v>
+        <v>103</v>
       </c>
       <c r="K68" s="8">
         <v>1.7</v>
@@ -14881,19 +15115,19 @@
         <v>49.9</v>
       </c>
       <c r="F69" s="8">
-        <v>67.5</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="G69" s="8">
         <v>98.9</v>
       </c>
       <c r="H69" s="8">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="I69" s="8">
         <v>75.099999999999994</v>
       </c>
       <c r="J69" s="8">
-        <v>105.7</v>
+        <v>104.6</v>
       </c>
       <c r="K69" s="8">
         <v>1.9</v>
@@ -15060,7 +15294,7 @@
         <v>76</v>
       </c>
       <c r="J70" s="8">
-        <v>107</v>
+        <v>105.9</v>
       </c>
       <c r="K70" s="8">
         <v>1.6</v>
@@ -15215,7 +15449,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="8">
-        <v>67</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="G71" s="8">
         <v>97.2</v>
@@ -15227,7 +15461,7 @@
         <v>75.7</v>
       </c>
       <c r="J71" s="8">
-        <v>107.5</v>
+        <v>106.4</v>
       </c>
       <c r="K71" s="8">
         <v>2.2999999999999998</v>
@@ -15394,7 +15628,7 @@
         <v>74.7</v>
       </c>
       <c r="J72" s="8">
-        <v>107.3</v>
+        <v>106.3</v>
       </c>
       <c r="K72" s="8">
         <v>3.8</v>
@@ -15561,7 +15795,7 @@
         <v>73.8</v>
       </c>
       <c r="J73" s="8">
-        <v>106.4</v>
+        <v>105.4</v>
       </c>
       <c r="K73" s="8">
         <v>4</v>
@@ -15716,7 +15950,7 @@
         <v>51.4</v>
       </c>
       <c r="F74" s="8">
-        <v>68</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="G74" s="8">
         <v>95.6</v>
@@ -15728,7 +15962,7 @@
         <v>73.3</v>
       </c>
       <c r="J74" s="8">
-        <v>105.4</v>
+        <v>104.4</v>
       </c>
       <c r="K74" s="8">
         <v>3.5</v>
@@ -15895,7 +16129,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="J75" s="8">
-        <v>103.3</v>
+        <v>102.3</v>
       </c>
       <c r="K75" s="8">
         <v>1.7</v>
@@ -16053,7 +16287,7 @@
         <v>69.7</v>
       </c>
       <c r="G76" s="8">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="H76" s="8">
         <v>72.900000000000006</v>
@@ -16062,7 +16296,7 @@
         <v>70.8</v>
       </c>
       <c r="J76" s="8">
-        <v>100.3</v>
+        <v>99.3</v>
       </c>
       <c r="K76" s="8">
         <v>-0.1</v>
@@ -16229,7 +16463,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="J77" s="8">
-        <v>98.1</v>
+        <v>97.2</v>
       </c>
       <c r="K77" s="8">
         <v>0.1</v>
@@ -16390,13 +16624,13 @@
         <v>97.1</v>
       </c>
       <c r="H78" s="8">
-        <v>72.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="I78" s="8">
         <v>70.3</v>
       </c>
       <c r="J78" s="8">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="K78" s="8">
         <v>1.3</v>
@@ -16563,7 +16797,7 @@
         <v>69.8</v>
       </c>
       <c r="J79" s="8">
-        <v>100.6</v>
+        <v>99.6</v>
       </c>
       <c r="K79" s="8">
         <v>2.2000000000000002</v>
@@ -16721,7 +16955,7 @@
         <v>69</v>
       </c>
       <c r="G80" s="8">
-        <v>95.1</v>
+        <v>95</v>
       </c>
       <c r="H80" s="8">
         <v>71.3</v>
@@ -16730,7 +16964,7 @@
         <v>68</v>
       </c>
       <c r="J80" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K80" s="8">
         <v>1.9</v>
@@ -16897,7 +17131,7 @@
         <v>66.2</v>
       </c>
       <c r="J81" s="8">
-        <v>104.2</v>
+        <v>103.1</v>
       </c>
       <c r="K81" s="8">
         <v>0.4</v>
@@ -17064,7 +17298,7 @@
         <v>65.8</v>
       </c>
       <c r="J82" s="8">
-        <v>104.7</v>
+        <v>103.6</v>
       </c>
       <c r="K82" s="8">
         <v>-0.3</v>
@@ -17231,7 +17465,7 @@
         <v>66.7</v>
       </c>
       <c r="J83" s="8">
-        <v>106.2</v>
+        <v>105.1</v>
       </c>
       <c r="K83" s="8">
         <v>-0.5</v>
@@ -17398,7 +17632,7 @@
         <v>67.7</v>
       </c>
       <c r="J84" s="8">
-        <v>108.9</v>
+        <v>107.8</v>
       </c>
       <c r="K84" s="8">
         <v>0</v>
@@ -17553,7 +17787,7 @@
         <v>52</v>
       </c>
       <c r="F85" s="8">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="G85" s="8">
         <v>95.4</v>
@@ -17565,7 +17799,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="J85" s="8">
-        <v>111.5</v>
+        <v>110.4</v>
       </c>
       <c r="K85" s="8">
         <v>0.6</v>
@@ -17732,7 +17966,7 @@
         <v>68</v>
       </c>
       <c r="J86" s="8">
-        <v>112.8</v>
+        <v>111.7</v>
       </c>
       <c r="K86" s="8">
         <v>0</v>
@@ -17899,7 +18133,7 @@
         <v>69.400000000000006</v>
       </c>
       <c r="J87" s="8">
-        <v>113.8</v>
+        <v>112.7</v>
       </c>
       <c r="K87" s="8">
         <v>-0.2</v>
@@ -18054,7 +18288,7 @@
         <v>53.1</v>
       </c>
       <c r="F88" s="8">
-        <v>71.900000000000006</v>
+        <v>72</v>
       </c>
       <c r="G88" s="8">
         <v>98.8</v>
@@ -18066,7 +18300,7 @@
         <v>72.3</v>
       </c>
       <c r="J88" s="8">
-        <v>115.8</v>
+        <v>114.6</v>
       </c>
       <c r="K88" s="8">
         <v>0.5</v>
@@ -18215,7 +18449,7 @@
         <v>86.9</v>
       </c>
       <c r="D89" s="8">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="E89" s="8">
         <v>53.9</v>
@@ -18233,7 +18467,7 @@
         <v>75.400000000000006</v>
       </c>
       <c r="J89" s="8">
-        <v>118.4</v>
+        <v>117.2</v>
       </c>
       <c r="K89" s="8">
         <v>1.8</v>
@@ -18400,7 +18634,7 @@
         <v>77</v>
       </c>
       <c r="J90" s="8">
-        <v>121.1</v>
+        <v>119.9</v>
       </c>
       <c r="K90" s="8">
         <v>2.7</v>
@@ -18567,7 +18801,7 @@
         <v>77.8</v>
       </c>
       <c r="J91" s="8">
-        <v>122.7</v>
+        <v>121.5</v>
       </c>
       <c r="K91" s="8">
         <v>2</v>
@@ -18716,13 +18950,13 @@
         <v>88</v>
       </c>
       <c r="D92" s="8">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="E92" s="8">
         <v>55.6</v>
       </c>
       <c r="F92" s="8">
-        <v>73.900000000000006</v>
+        <v>74</v>
       </c>
       <c r="G92" s="8">
         <v>101.8</v>
@@ -18734,7 +18968,7 @@
         <v>78.3</v>
       </c>
       <c r="J92" s="8">
-        <v>123.5</v>
+        <v>122.2</v>
       </c>
       <c r="K92" s="8">
         <v>0.8</v>
@@ -18901,7 +19135,7 @@
         <v>78.3</v>
       </c>
       <c r="J93" s="8">
-        <v>124.1</v>
+        <v>122.8</v>
       </c>
       <c r="K93" s="8">
         <v>1.1000000000000001</v>
@@ -19068,7 +19302,7 @@
         <v>78.7</v>
       </c>
       <c r="J94" s="8">
-        <v>124.2</v>
+        <v>123</v>
       </c>
       <c r="K94" s="8">
         <v>1.2</v>
@@ -19235,7 +19469,7 @@
         <v>79.8</v>
       </c>
       <c r="J95" s="8">
-        <v>124.1</v>
+        <v>122.9</v>
       </c>
       <c r="K95" s="8">
         <v>2.1</v>
@@ -19396,13 +19630,13 @@
         <v>107.2</v>
       </c>
       <c r="H96" s="8">
-        <v>75.7</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="I96" s="8">
         <v>81.099999999999994</v>
       </c>
       <c r="J96" s="8">
-        <v>123.2</v>
+        <v>121.9</v>
       </c>
       <c r="K96" s="8">
         <v>3</v>
@@ -19557,7 +19791,7 @@
         <v>58.5</v>
       </c>
       <c r="F97" s="8">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="G97" s="8">
         <v>109.9</v>
@@ -19569,7 +19803,7 @@
         <v>82.4</v>
       </c>
       <c r="J97" s="8">
-        <v>121.4</v>
+        <v>120.2</v>
       </c>
       <c r="K97" s="8">
         <v>2.9</v>
@@ -19736,7 +19970,7 @@
         <v>82.4</v>
       </c>
       <c r="J98" s="8">
-        <v>120</v>
+        <v>118.7</v>
       </c>
       <c r="K98" s="8">
         <v>1.7</v>
@@ -19903,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="J99" s="8">
-        <v>119.7</v>
+        <v>118.5</v>
       </c>
       <c r="K99" s="8">
         <v>-0.4</v>
@@ -20058,7 +20292,7 @@
         <v>58.5</v>
       </c>
       <c r="F100" s="8">
-        <v>77</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="G100" s="8">
         <v>109.7</v>
@@ -20070,7 +20304,7 @@
         <v>82.3</v>
       </c>
       <c r="J100" s="8">
-        <v>121.4</v>
+        <v>120.1</v>
       </c>
       <c r="K100" s="8">
         <v>-1.6</v>
@@ -20237,7 +20471,7 @@
         <v>83</v>
       </c>
       <c r="J101" s="8">
-        <v>123.7</v>
+        <v>122.5</v>
       </c>
       <c r="K101" s="8">
         <v>-0.5</v>
@@ -20392,10 +20626,10 @@
         <v>59.1</v>
       </c>
       <c r="F102" s="8">
-        <v>78.8</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G102" s="8">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="H102" s="8">
         <v>76.099999999999994</v>
@@ -20404,7 +20638,7 @@
         <v>84.1</v>
       </c>
       <c r="J102" s="8">
-        <v>125.5</v>
+        <v>124.2</v>
       </c>
       <c r="K102" s="8">
         <v>1.5</v>
@@ -20571,7 +20805,7 @@
         <v>85.4</v>
       </c>
       <c r="J103" s="8">
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="K103" s="8">
         <v>2.1</v>
@@ -20738,7 +20972,7 @@
         <v>86.5</v>
       </c>
       <c r="J104" s="8">
-        <v>123.6</v>
+        <v>122.4</v>
       </c>
       <c r="K104" s="8">
         <v>1.2</v>
@@ -20893,7 +21127,7 @@
         <v>61.2</v>
       </c>
       <c r="F105" s="8">
-        <v>83</v>
+        <v>83.1</v>
       </c>
       <c r="G105" s="8">
         <v>113.1</v>
@@ -20905,7 +21139,7 @@
         <v>87.6</v>
       </c>
       <c r="J105" s="8">
-        <v>122.8</v>
+        <v>121.6</v>
       </c>
       <c r="K105" s="8">
         <v>0.5</v>
@@ -21072,7 +21306,7 @@
         <v>88.9</v>
       </c>
       <c r="J106" s="8">
-        <v>123.1</v>
+        <v>121.8</v>
       </c>
       <c r="K106" s="8">
         <v>0.1</v>
@@ -21239,7 +21473,7 @@
         <v>90.5</v>
       </c>
       <c r="J107" s="8">
-        <v>124.3</v>
+        <v>123.1</v>
       </c>
       <c r="K107" s="8">
         <v>-0.1</v>
@@ -21400,13 +21634,13 @@
         <v>115</v>
       </c>
       <c r="H108" s="8">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="I108" s="8">
         <v>89.9</v>
       </c>
       <c r="J108" s="8">
-        <v>126.2</v>
+        <v>124.9</v>
       </c>
       <c r="K108" s="8">
         <v>-0.1</v>
@@ -21573,7 +21807,7 @@
         <v>87.5</v>
       </c>
       <c r="J109" s="8">
-        <v>126.5</v>
+        <v>125.2</v>
       </c>
       <c r="K109" s="8">
         <v>0.3</v>
@@ -21740,7 +21974,7 @@
         <v>85.2</v>
       </c>
       <c r="J110" s="8">
-        <v>125.5</v>
+        <v>124.2</v>
       </c>
       <c r="K110" s="8">
         <v>1.1000000000000001</v>
@@ -21895,7 +22129,7 @@
         <v>61.9</v>
       </c>
       <c r="F111" s="8">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="G111" s="8">
         <v>121.4</v>
@@ -21907,7 +22141,7 @@
         <v>84.5</v>
       </c>
       <c r="J111" s="8">
-        <v>125.9</v>
+        <v>124.6</v>
       </c>
       <c r="K111" s="8">
         <v>1.5</v>
@@ -22062,10 +22296,10 @@
         <v>62.8</v>
       </c>
       <c r="F112" s="8">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="G112" s="8">
-        <v>122.1</v>
+        <v>122</v>
       </c>
       <c r="H112" s="8">
         <v>78.099999999999994</v>
@@ -22074,7 +22308,7 @@
         <v>85.8</v>
       </c>
       <c r="J112" s="8">
-        <v>130.19999999999999</v>
+        <v>128.9</v>
       </c>
       <c r="K112" s="8">
         <v>2</v>
@@ -22241,7 +22475,7 @@
         <v>87.5</v>
       </c>
       <c r="J113" s="8">
-        <v>136.9</v>
+        <v>135.5</v>
       </c>
       <c r="K113" s="8">
         <v>3.1</v>
@@ -22408,7 +22642,7 @@
         <v>89.7</v>
       </c>
       <c r="J114" s="8">
-        <v>140.1</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="K114" s="8">
         <v>2.7</v>
@@ -22575,7 +22809,7 @@
         <v>92.1</v>
       </c>
       <c r="J115" s="8">
-        <v>137.80000000000001</v>
+        <v>136.4</v>
       </c>
       <c r="K115" s="8">
         <v>1.8</v>
@@ -22742,7 +22976,7 @@
         <v>92.7</v>
       </c>
       <c r="J116" s="8">
-        <v>133.80000000000001</v>
+        <v>132.4</v>
       </c>
       <c r="K116" s="8">
         <v>1</v>
@@ -22909,7 +23143,7 @@
         <v>91.9</v>
       </c>
       <c r="J117" s="8">
-        <v>131</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="K117" s="8">
         <v>0.6</v>
@@ -23058,16 +23292,16 @@
         <v>99.5</v>
       </c>
       <c r="D118" s="8">
-        <v>83</v>
+        <v>82.9</v>
       </c>
       <c r="E118" s="8">
         <v>66.2</v>
       </c>
       <c r="F118" s="8">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="G118" s="8">
-        <v>123.6</v>
+        <v>123.5</v>
       </c>
       <c r="H118" s="8">
         <v>77.5</v>
@@ -23076,7 +23310,7 @@
         <v>91.4</v>
       </c>
       <c r="J118" s="8">
-        <v>130.9</v>
+        <v>129.5</v>
       </c>
       <c r="K118" s="8">
         <v>0.1</v>
@@ -23243,7 +23477,7 @@
         <v>91.1</v>
       </c>
       <c r="J119" s="8">
-        <v>132.9</v>
+        <v>131.6</v>
       </c>
       <c r="K119" s="8">
         <v>-0.2</v>
@@ -23410,7 +23644,7 @@
         <v>92</v>
       </c>
       <c r="J120" s="8">
-        <v>136</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="K120" s="8">
         <v>-0.1</v>
@@ -23577,7 +23811,7 @@
         <v>93.1</v>
       </c>
       <c r="J121" s="8">
-        <v>139</v>
+        <v>137.6</v>
       </c>
       <c r="K121" s="8">
         <v>0.3</v>
@@ -23726,7 +23960,7 @@
         <v>104.2</v>
       </c>
       <c r="D122" s="8">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="E122" s="8">
         <v>68</v>
@@ -23744,7 +23978,7 @@
         <v>93.9</v>
       </c>
       <c r="J122" s="8">
-        <v>140.6</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="K122" s="8">
         <v>0.3</v>
@@ -23899,7 +24133,7 @@
         <v>68.5</v>
       </c>
       <c r="F123" s="8">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="G123" s="8">
         <v>132.30000000000001</v>
@@ -23911,7 +24145,7 @@
         <v>95.3</v>
       </c>
       <c r="J123" s="8">
-        <v>141.1</v>
+        <v>139.6</v>
       </c>
       <c r="K123" s="8">
         <v>-0.2</v>
@@ -24078,7 +24312,7 @@
         <v>98.3</v>
       </c>
       <c r="J124" s="8">
-        <v>141.30000000000001</v>
+        <v>139.9</v>
       </c>
       <c r="K124" s="8">
         <v>-0.6</v>
@@ -24236,7 +24470,7 @@
         <v>92.4</v>
       </c>
       <c r="G125" s="8">
-        <v>133</v>
+        <v>132.9</v>
       </c>
       <c r="H125" s="8">
         <v>88.2</v>
@@ -24245,7 +24479,7 @@
         <v>102.6</v>
       </c>
       <c r="J125" s="8">
-        <v>140.69999999999999</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="K125" s="8">
         <v>-0.6</v>
@@ -24412,7 +24646,7 @@
         <v>105.9</v>
       </c>
       <c r="J126" s="8">
-        <v>140.19999999999999</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="K126" s="8">
         <v>-0.7</v>
@@ -24579,7 +24813,7 @@
         <v>106.5</v>
       </c>
       <c r="J127" s="8">
-        <v>140.9</v>
+        <v>139.5</v>
       </c>
       <c r="K127" s="8">
         <v>-0.7</v>
@@ -24734,7 +24968,7 @@
         <v>68.2</v>
       </c>
       <c r="F128" s="8">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="G128" s="8">
         <v>126.5</v>
@@ -24746,7 +24980,7 @@
         <v>106.7</v>
       </c>
       <c r="J128" s="8">
-        <v>143</v>
+        <v>141.6</v>
       </c>
       <c r="K128" s="8">
         <v>-1</v>
@@ -24892,10 +25126,10 @@
         <v>39.6</v>
       </c>
       <c r="C129" s="8">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D129" s="8">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="E129" s="8">
         <v>68.7</v>
@@ -24913,7 +25147,7 @@
         <v>106.7</v>
       </c>
       <c r="J129" s="8">
-        <v>145.30000000000001</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="K129" s="8">
         <v>-0.6</v>
@@ -25077,10 +25311,10 @@
         <v>85.9</v>
       </c>
       <c r="I130" s="8">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="J130" s="8">
-        <v>145.4</v>
+        <v>143.9</v>
       </c>
       <c r="K130" s="8">
         <v>0.4</v>
@@ -25235,7 +25469,7 @@
         <v>69</v>
       </c>
       <c r="F131" s="8">
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="G131" s="8">
         <v>129.80000000000001</v>
@@ -25247,7 +25481,7 @@
         <v>104.1</v>
       </c>
       <c r="J131" s="8">
-        <v>142.69999999999999</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="K131" s="8">
         <v>1.3</v>
@@ -25414,7 +25648,7 @@
         <v>104.5</v>
       </c>
       <c r="J132" s="8">
-        <v>139.5</v>
+        <v>138.1</v>
       </c>
       <c r="K132" s="8">
         <v>2.4</v>
@@ -25569,7 +25803,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="F133" s="8">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="G133" s="8">
         <v>126.4</v>
@@ -25581,7 +25815,7 @@
         <v>107.9</v>
       </c>
       <c r="J133" s="8">
-        <v>138.19999999999999</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="K133" s="8">
         <v>2.8</v>
@@ -25748,7 +25982,7 @@
         <v>111.9</v>
       </c>
       <c r="J134" s="8">
-        <v>138.4</v>
+        <v>137</v>
       </c>
       <c r="K134" s="8">
         <v>2.2999999999999998</v>
@@ -25915,7 +26149,7 @@
         <v>113.3</v>
       </c>
       <c r="J135" s="8">
-        <v>138.4</v>
+        <v>137</v>
       </c>
       <c r="K135" s="8">
         <v>0.6</v>
@@ -26082,7 +26316,7 @@
         <v>111.7</v>
       </c>
       <c r="J136" s="8">
-        <v>137.5</v>
+        <v>136.1</v>
       </c>
       <c r="K136" s="8">
         <v>-1.8</v>
@@ -26249,7 +26483,7 @@
         <v>108.9</v>
       </c>
       <c r="J137" s="8">
-        <v>136.1</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="K137" s="8">
         <v>-1</v>
@@ -26416,7 +26650,7 @@
         <v>107.4</v>
       </c>
       <c r="J138" s="8">
-        <v>135.1</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="K138" s="8">
         <v>2.1</v>
@@ -26583,7 +26817,7 @@
         <v>108.5</v>
       </c>
       <c r="J139" s="8">
-        <v>134.5</v>
+        <v>133.1</v>
       </c>
       <c r="K139" s="8">
         <v>3.9</v>
@@ -26750,7 +26984,7 @@
         <v>110.3</v>
       </c>
       <c r="J140" s="8">
-        <v>134.9</v>
+        <v>133.6</v>
       </c>
       <c r="K140" s="8">
         <v>3.2</v>
@@ -26905,7 +27139,7 @@
         <v>73.599999999999994</v>
       </c>
       <c r="F141" s="8">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="G141" s="8">
         <v>123.2</v>
@@ -26917,7 +27151,7 @@
         <v>110.9</v>
       </c>
       <c r="J141" s="8">
-        <v>136.80000000000001</v>
+        <v>135.4</v>
       </c>
       <c r="K141" s="8">
         <v>1</v>
@@ -27084,7 +27318,7 @@
         <v>109.8</v>
       </c>
       <c r="J142" s="8">
-        <v>138.9</v>
+        <v>137.5</v>
       </c>
       <c r="K142" s="8">
         <v>0.1</v>
@@ -27251,7 +27485,7 @@
         <v>108.9</v>
       </c>
       <c r="J143" s="8">
-        <v>139.6</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="K143" s="8">
         <v>0.5</v>
@@ -27418,7 +27652,7 @@
         <v>111.2</v>
       </c>
       <c r="J144" s="8">
-        <v>139.4</v>
+        <v>138</v>
       </c>
       <c r="K144" s="8">
         <v>0.6</v>
@@ -27567,7 +27801,7 @@
         <v>114.7</v>
       </c>
       <c r="D145" s="8">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="E145" s="8">
         <v>76.2</v>
@@ -27585,7 +27819,7 @@
         <v>115.9</v>
       </c>
       <c r="J145" s="8">
-        <v>138.9</v>
+        <v>137.5</v>
       </c>
       <c r="K145" s="8">
         <v>0.9</v>
@@ -27740,10 +27974,10 @@
         <v>76.8</v>
       </c>
       <c r="F146" s="8">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="G146" s="8">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="H146" s="8">
         <v>110.8</v>
@@ -27752,7 +27986,7 @@
         <v>119.1</v>
       </c>
       <c r="J146" s="8">
-        <v>137.9</v>
+        <v>136.5</v>
       </c>
       <c r="K146" s="8">
         <v>1.2</v>
@@ -27919,7 +28153,7 @@
         <v>117.4</v>
       </c>
       <c r="J147" s="8">
-        <v>134.6</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="K147" s="8">
         <v>1.3</v>
@@ -28074,7 +28308,7 @@
         <v>75.5</v>
       </c>
       <c r="F148" s="8">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="G148" s="8">
         <v>111.2</v>
@@ -28086,7 +28320,7 @@
         <v>111.1</v>
       </c>
       <c r="J148" s="8">
-        <v>129.5</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="K148" s="8">
         <v>0.7</v>
@@ -28253,7 +28487,7 @@
         <v>105</v>
       </c>
       <c r="J149" s="8">
-        <v>123.8</v>
+        <v>122.6</v>
       </c>
       <c r="K149" s="8">
         <v>0.9</v>
@@ -28420,7 +28654,7 @@
         <v>105.4</v>
       </c>
       <c r="J150" s="8">
-        <v>120.1</v>
+        <v>118.9</v>
       </c>
       <c r="K150" s="8">
         <v>1.5</v>
@@ -28587,7 +28821,7 @@
         <v>110.3</v>
       </c>
       <c r="J151" s="8">
-        <v>119.7</v>
+        <v>118.5</v>
       </c>
       <c r="K151" s="8">
         <v>2.4</v>
@@ -28754,7 +28988,7 @@
         <v>115.4</v>
       </c>
       <c r="J152" s="8">
-        <v>120.8</v>
+        <v>119.6</v>
       </c>
       <c r="K152" s="8">
         <v>2.9</v>
@@ -28832,7 +29066,7 @@
         <v>2.5</v>
       </c>
       <c r="AJ152" s="8">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="AK152" s="8">
         <v>5.4</v>
@@ -28900,7 +29134,7 @@
         <v>54.7</v>
       </c>
       <c r="C153" s="8">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D153" s="8">
         <v>94.4</v>
@@ -28909,7 +29143,7 @@
         <v>78.7</v>
       </c>
       <c r="F153" s="8">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="G153" s="8">
         <v>117.3</v>
@@ -28921,7 +29155,7 @@
         <v>117.4</v>
       </c>
       <c r="J153" s="8">
-        <v>121.4</v>
+        <v>120.2</v>
       </c>
       <c r="K153" s="8">
         <v>2.6</v>
@@ -28987,7 +29221,7 @@
         <v>-2</v>
       </c>
       <c r="AF153" s="8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AG153" s="8">
         <v>4.4000000000000004</v>
@@ -28996,7 +29230,7 @@
         <v>3.4</v>
       </c>
       <c r="AI153" s="8">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AJ153" s="8">
         <v>-8.6</v>
@@ -29067,7 +29301,7 @@
         <v>55.5</v>
       </c>
       <c r="C154" s="8">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D154" s="8">
         <v>94.5</v>
@@ -29088,7 +29322,7 @@
         <v>116.6</v>
       </c>
       <c r="J154" s="8">
-        <v>120.2</v>
+        <v>119</v>
       </c>
       <c r="K154" s="8">
         <v>1.5</v>
@@ -29255,7 +29489,7 @@
         <v>115.9</v>
       </c>
       <c r="J155" s="8">
-        <v>117.9</v>
+        <v>116.7</v>
       </c>
       <c r="K155" s="8">
         <v>-0.3</v>
@@ -29330,13 +29564,13 @@
         <v>-3.1</v>
       </c>
       <c r="AI155" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AJ155" s="8">
         <v>-2.9</v>
       </c>
       <c r="AK155" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AL155" s="8">
         <v>56.9</v>
@@ -29410,7 +29644,7 @@
         <v>78.2</v>
       </c>
       <c r="F156" s="8">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="G156" s="8">
         <v>115.2</v>
@@ -29422,7 +29656,7 @@
         <v>114.3</v>
       </c>
       <c r="J156" s="8">
-        <v>116.5</v>
+        <v>115.3</v>
       </c>
       <c r="K156" s="8">
         <v>-1.7</v>
@@ -29470,7 +29704,7 @@
         <v>119.2</v>
       </c>
       <c r="Z156" s="8">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AA156" s="8">
         <v>114.7</v>
@@ -29488,7 +29722,7 @@
         <v>0.7</v>
       </c>
       <c r="AF156" s="8">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AG156" s="8">
         <v>-1.1000000000000001</v>
@@ -29589,7 +29823,7 @@
         <v>112.3</v>
       </c>
       <c r="J157" s="8">
-        <v>115.7</v>
+        <v>114.6</v>
       </c>
       <c r="K157" s="8">
         <v>-0.8</v>
@@ -29664,7 +29898,7 @@
         <v>-4.2</v>
       </c>
       <c r="AI157" s="8">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AJ157" s="8">
         <v>-1.3</v>
@@ -29756,7 +29990,7 @@
         <v>112.5</v>
       </c>
       <c r="J158" s="8">
-        <v>114.2</v>
+        <v>113.1</v>
       </c>
       <c r="K158" s="8">
         <v>1.6</v>
@@ -29780,7 +30014,7 @@
         <v>2.5</v>
       </c>
       <c r="R158" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S158" s="8">
         <v>-1.3</v>
@@ -29789,7 +30023,7 @@
         <v>54.7</v>
       </c>
       <c r="U158" s="8">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="V158" s="8">
         <v>97.3</v>
@@ -29911,7 +30145,7 @@
         <v>80.5</v>
       </c>
       <c r="F159" s="8">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="G159" s="8">
         <v>121.1</v>
@@ -29920,10 +30154,10 @@
         <v>107.4</v>
       </c>
       <c r="I159" s="8">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="J159" s="8">
-        <v>112</v>
+        <v>110.9</v>
       </c>
       <c r="K159" s="8">
         <v>3.1</v>
@@ -30090,7 +30324,7 @@
         <v>117.9</v>
       </c>
       <c r="J160" s="8">
-        <v>109.4</v>
+        <v>108.3</v>
       </c>
       <c r="K160" s="8">
         <v>2.5</v>
@@ -30168,7 +30402,7 @@
         <v>5.7</v>
       </c>
       <c r="AJ160" s="8">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AK160" s="8">
         <v>-4.0999999999999996</v>
@@ -30245,19 +30479,19 @@
         <v>81.599999999999994</v>
       </c>
       <c r="F161" s="8">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="G161" s="8">
         <v>118.3</v>
       </c>
       <c r="H161" s="8">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="I161" s="8">
         <v>119.6</v>
       </c>
       <c r="J161" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K161" s="8">
         <v>1.6</v>
@@ -30296,7 +30530,7 @@
         <v>96.7</v>
       </c>
       <c r="W161" s="8">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="X161" s="8">
         <v>96.7</v>
@@ -30305,7 +30539,7 @@
         <v>121.8</v>
       </c>
       <c r="Z161" s="8">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AA161" s="8">
         <v>121.9</v>
@@ -30332,10 +30566,10 @@
         <v>3</v>
       </c>
       <c r="AI161" s="8">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AJ161" s="8">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK161" s="8">
         <v>-0.3</v>
@@ -30424,7 +30658,7 @@
         <v>119.3</v>
       </c>
       <c r="J162" s="8">
-        <v>105.4</v>
+        <v>104.4</v>
       </c>
       <c r="K162" s="8">
         <v>2.2000000000000002</v>
@@ -30499,7 +30733,7 @@
         <v>-8.6</v>
       </c>
       <c r="AI162" s="8">
-        <v>-5.2</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="AJ162" s="8">
         <v>-2.9</v>
@@ -30591,7 +30825,7 @@
         <v>117.4</v>
       </c>
       <c r="J163" s="8">
-        <v>105.2</v>
+        <v>104.2</v>
       </c>
       <c r="K163" s="8">
         <v>2.8</v>
@@ -30660,7 +30894,7 @@
         <v>2.4</v>
       </c>
       <c r="AG163" s="8">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="AH163" s="8">
         <v>1.2</v>
@@ -30669,7 +30903,7 @@
         <v>1.2</v>
       </c>
       <c r="AJ163" s="8">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AK163" s="8">
         <v>-2</v>
@@ -30746,7 +30980,7 @@
         <v>83.4</v>
       </c>
       <c r="F164" s="8">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="G164" s="8">
         <v>111.3</v>
@@ -30758,7 +30992,7 @@
         <v>113.9</v>
       </c>
       <c r="J164" s="8">
-        <v>106.4</v>
+        <v>105.4</v>
       </c>
       <c r="K164" s="8">
         <v>2.7</v>
@@ -30806,7 +31040,7 @@
         <v>110.9</v>
       </c>
       <c r="Z164" s="8">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="AA164" s="8">
         <v>114.8</v>
@@ -30836,7 +31070,7 @@
         <v>-5</v>
       </c>
       <c r="AJ164" s="8">
-        <v>-2.2000000000000002</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="AK164" s="8">
         <v>2.2999999999999998</v>
@@ -30913,19 +31147,19 @@
         <v>83.6</v>
       </c>
       <c r="F165" s="8">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="G165" s="8">
         <v>112.1</v>
       </c>
       <c r="H165" s="8">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="I165" s="8">
         <v>110.9</v>
       </c>
       <c r="J165" s="8">
-        <v>107.8</v>
+        <v>106.7</v>
       </c>
       <c r="K165" s="8">
         <v>2.5</v>
@@ -30946,7 +31180,7 @@
         <v>0.7</v>
       </c>
       <c r="Q165" s="8">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="R165" s="8">
         <v>-2.6</v>
@@ -30958,7 +31192,7 @@
         <v>64.2</v>
       </c>
       <c r="U165" s="8">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="V165" s="8">
         <v>96.6</v>
@@ -30973,13 +31207,13 @@
         <v>111.3</v>
       </c>
       <c r="Z165" s="8">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="AA165" s="8">
         <v>109.2</v>
       </c>
       <c r="AB165" s="8">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="AC165" s="8">
         <v>0.5</v>
@@ -31000,7 +31234,7 @@
         <v>0.4</v>
       </c>
       <c r="AI165" s="8">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AJ165" s="8">
         <v>-4.9000000000000004</v>
@@ -31092,7 +31326,7 @@
         <v>109</v>
       </c>
       <c r="J166" s="8">
-        <v>108</v>
+        <v>106.9</v>
       </c>
       <c r="K166" s="8">
         <v>2.5</v>
@@ -31140,7 +31374,7 @@
         <v>112.5</v>
       </c>
       <c r="Z166" s="8">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="AA166" s="8">
         <v>109.4</v>
@@ -31152,7 +31386,7 @@
         <v>3.7</v>
       </c>
       <c r="AD166" s="8">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AE166" s="8">
         <v>-0.2</v>
@@ -31167,7 +31401,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI166" s="8">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AJ166" s="8">
         <v>0.2</v>
@@ -31259,7 +31493,7 @@
         <v>108.5</v>
       </c>
       <c r="J167" s="8">
-        <v>107.9</v>
+        <v>106.8</v>
       </c>
       <c r="K167" s="8">
         <v>3.1</v>
@@ -31274,7 +31508,7 @@
         <v>1.2</v>
       </c>
       <c r="O167" s="8">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="P167" s="8">
         <v>-0.3</v>
@@ -31328,7 +31562,7 @@
         <v>1.5</v>
       </c>
       <c r="AG167" s="8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AH167" s="8">
         <v>-1</v>
@@ -31337,7 +31571,7 @@
         <v>7.9</v>
       </c>
       <c r="AJ167" s="8">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AK167" s="8">
         <v>-1.9</v>
@@ -31426,7 +31660,7 @@
         <v>107.5</v>
       </c>
       <c r="J168" s="8">
-        <v>108.7</v>
+        <v>107.6</v>
       </c>
       <c r="K168" s="8">
         <v>3.2</v>
@@ -31468,13 +31702,13 @@
         <v>86.2</v>
       </c>
       <c r="X168" s="8">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="Y168" s="8">
         <v>109.4</v>
       </c>
       <c r="Z168" s="8">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AA168" s="8">
         <v>108.3</v>
@@ -31593,7 +31827,7 @@
         <v>105.6</v>
       </c>
       <c r="J169" s="8">
-        <v>109.6</v>
+        <v>108.5</v>
       </c>
       <c r="K169" s="8">
         <v>3.3</v>
@@ -31617,7 +31851,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="R169" s="8">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="S169" s="8">
         <v>0.8</v>
@@ -31641,7 +31875,7 @@
         <v>112.5</v>
       </c>
       <c r="Z169" s="8">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="AA169" s="8">
         <v>106</v>
@@ -31656,7 +31890,7 @@
         <v>-2.4</v>
       </c>
       <c r="AE169" s="8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AF169" s="8">
         <v>1.4</v>
@@ -31668,10 +31902,10 @@
         <v>2.8</v>
       </c>
       <c r="AI169" s="8">
-        <v>-5.0999999999999996</v>
+        <v>-5.3</v>
       </c>
       <c r="AJ169" s="8">
-        <v>-2.2000000000000002</v>
+        <v>-2.1</v>
       </c>
       <c r="AK169" s="8">
         <v>-2.9</v>
@@ -31751,7 +31985,7 @@
         <v>98.2</v>
       </c>
       <c r="G170" s="8">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="H170" s="8">
         <v>96.7</v>
@@ -31760,7 +31994,7 @@
         <v>104.7</v>
       </c>
       <c r="J170" s="8">
-        <v>109</v>
+        <v>107.9</v>
       </c>
       <c r="K170" s="8">
         <v>3.3</v>
@@ -31778,7 +32012,7 @@
         <v>-0.3</v>
       </c>
       <c r="P170" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q170" s="8">
         <v>-2.1</v>
@@ -31808,10 +32042,10 @@
         <v>110.8</v>
       </c>
       <c r="Z170" s="8">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AA170" s="8">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AB170" s="8">
         <v>108.9</v>
@@ -31820,7 +32054,7 @@
         <v>1.5</v>
       </c>
       <c r="AD170" s="8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AE170" s="8">
         <v>-1.1000000000000001</v>
@@ -31835,7 +32069,7 @@
         <v>-1.5</v>
       </c>
       <c r="AI170" s="8">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AJ170" s="8">
         <v>-2.9</v>
@@ -31927,7 +32161,7 @@
         <v>105.2</v>
       </c>
       <c r="J171" s="8">
-        <v>108</v>
+        <v>106.9</v>
       </c>
       <c r="K171" s="8">
         <v>2.7</v>
@@ -31969,7 +32203,7 @@
         <v>89.6</v>
       </c>
       <c r="X171" s="8">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="Y171" s="8">
         <v>109.7</v>
@@ -31978,7 +32212,7 @@
         <v>96.5</v>
       </c>
       <c r="AA171" s="8">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="AB171" s="8">
         <v>108</v>
@@ -32005,7 +32239,7 @@
         <v>-1.8</v>
       </c>
       <c r="AJ171" s="8">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AK171" s="8">
         <v>-0.8</v>
@@ -32094,7 +32328,7 @@
         <v>105.8</v>
       </c>
       <c r="J172" s="8">
-        <v>108.7</v>
+        <v>107.6</v>
       </c>
       <c r="K172" s="8">
         <v>0.9</v>
@@ -32130,7 +32364,7 @@
         <v>103.1</v>
       </c>
       <c r="V172" s="8">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="W172" s="8">
         <v>89.6</v>
@@ -32139,10 +32373,10 @@
         <v>96.2</v>
       </c>
       <c r="Y172" s="8">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="Z172" s="8">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="AA172" s="8">
         <v>107.4</v>
@@ -32169,7 +32403,7 @@
         <v>1.8</v>
       </c>
       <c r="AI172" s="8">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AJ172" s="8">
         <v>2.1</v>
@@ -32240,7 +32474,7 @@
         <v>79</v>
       </c>
       <c r="C173" s="8">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="D173" s="8">
         <v>96.6</v>
@@ -32249,7 +32483,7 @@
         <v>89.8</v>
       </c>
       <c r="F173" s="8">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="G173" s="8">
         <v>108</v>
@@ -32261,7 +32495,7 @@
         <v>105.1</v>
       </c>
       <c r="J173" s="8">
-        <v>110.8</v>
+        <v>109.7</v>
       </c>
       <c r="K173" s="8">
         <v>0.8</v>
@@ -32285,7 +32519,7 @@
         <v>0</v>
       </c>
       <c r="R173" s="8">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="S173" s="8">
         <v>1.9</v>
@@ -32309,7 +32543,7 @@
         <v>106</v>
       </c>
       <c r="Z173" s="8">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AA173" s="8">
         <v>104.8</v>
@@ -32330,16 +32564,16 @@
         <v>0.5</v>
       </c>
       <c r="AG173" s="8">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AH173" s="8">
-        <v>-5.0999999999999996</v>
+        <v>-5</v>
       </c>
       <c r="AI173" s="8">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="AJ173" s="8">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="AK173" s="8">
         <v>4.3</v>
@@ -32407,7 +32641,7 @@
         <v>80.400000000000006</v>
       </c>
       <c r="C174" s="8">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="D174" s="8">
         <v>97.4</v>
@@ -32419,7 +32653,7 @@
         <v>94.4</v>
       </c>
       <c r="G174" s="8">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="H174" s="8">
         <v>95.9</v>
@@ -32428,7 +32662,7 @@
         <v>103.4</v>
       </c>
       <c r="J174" s="8">
-        <v>112.3</v>
+        <v>111.2</v>
       </c>
       <c r="K174" s="8">
         <v>1.8</v>
@@ -32443,16 +32677,16 @@
         <v>0.5</v>
       </c>
       <c r="O174" s="8">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="P174" s="8">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="Q174" s="8">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="R174" s="8">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="S174" s="8">
         <v>1.4</v>
@@ -32473,7 +32707,7 @@
         <v>97</v>
       </c>
       <c r="Y174" s="8">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="Z174" s="8">
         <v>94.7</v>
@@ -32503,10 +32737,10 @@
         <v>-0.8</v>
       </c>
       <c r="AI174" s="8">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="AJ174" s="8">
-        <v>-2.2999999999999998</v>
+        <v>-2.4</v>
       </c>
       <c r="AK174" s="8">
         <v>0.6</v>
@@ -32586,7 +32820,7 @@
         <v>93.8</v>
       </c>
       <c r="G175" s="8">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="H175" s="8">
         <v>94</v>
@@ -32595,7 +32829,7 @@
         <v>102.7</v>
       </c>
       <c r="J175" s="8">
-        <v>112.5</v>
+        <v>111.3</v>
       </c>
       <c r="K175" s="8">
         <v>3.2</v>
@@ -32604,7 +32838,7 @@
         <v>-0.9</v>
       </c>
       <c r="M175" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N175" s="8">
         <v>1.1000000000000001</v>
@@ -32619,7 +32853,7 @@
         <v>-2</v>
       </c>
       <c r="R175" s="8">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="S175" s="8">
         <v>0.1</v>
@@ -32637,13 +32871,13 @@
         <v>91.7</v>
       </c>
       <c r="X175" s="8">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="Y175" s="8">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="Z175" s="8">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="AA175" s="8">
         <v>103.3</v>
@@ -32655,7 +32889,7 @@
         <v>8.6</v>
       </c>
       <c r="AD175" s="8">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AE175" s="8">
         <v>0.8</v>
@@ -32664,7 +32898,7 @@
         <v>2.5</v>
       </c>
       <c r="AG175" s="8">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AH175" s="8">
         <v>4.3</v>
@@ -32676,7 +32910,7 @@
         <v>1</v>
       </c>
       <c r="AK175" s="8">
-        <v>-4.8</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="AL175" s="8">
         <v>86.9</v>
@@ -32762,7 +32996,7 @@
         <v>102.6</v>
       </c>
       <c r="J176" s="8">
-        <v>111.4</v>
+        <v>110.2</v>
       </c>
       <c r="K176" s="8">
         <v>2.7</v>
@@ -32777,10 +33011,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O176" s="8">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P176" s="8">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="Q176" s="8">
         <v>-2.6</v>
@@ -32804,25 +33038,25 @@
         <v>91.8</v>
       </c>
       <c r="X176" s="8">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="Y176" s="8">
         <v>103.7</v>
       </c>
       <c r="Z176" s="8">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="AA176" s="8">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AB176" s="8">
         <v>112.2</v>
       </c>
       <c r="AC176" s="8">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD176" s="8">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AE176" s="8">
         <v>1.6</v>
@@ -32831,19 +33065,19 @@
         <v>0</v>
       </c>
       <c r="AG176" s="8">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="AH176" s="8">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AI176" s="8">
         <v>-3.2</v>
       </c>
       <c r="AJ176" s="8">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AK176" s="8">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AL176" s="8">
         <v>85.9</v>
@@ -32923,13 +33157,13 @@
         <v>103.5</v>
       </c>
       <c r="H177" s="8">
-        <v>91</v>
+        <v>90.9</v>
       </c>
       <c r="I177" s="8">
         <v>102.1</v>
       </c>
       <c r="J177" s="8">
-        <v>110.6</v>
+        <v>109.5</v>
       </c>
       <c r="K177" s="8">
         <v>0.9</v>
@@ -32974,13 +33208,13 @@
         <v>95.2</v>
       </c>
       <c r="Y177" s="8">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="Z177" s="8">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="AA177" s="8">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AB177" s="8">
         <v>110.7</v>
@@ -32998,16 +33232,16 @@
         <v>1.6</v>
       </c>
       <c r="AG177" s="8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AH177" s="8">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AI177" s="8">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AJ177" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AK177" s="8">
         <v>-1.3</v>
@@ -33087,16 +33321,16 @@
         <v>94.4</v>
       </c>
       <c r="G178" s="8">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="H178" s="8">
         <v>91.9</v>
       </c>
       <c r="I178" s="8">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="J178" s="8">
-        <v>110.2</v>
+        <v>109.1</v>
       </c>
       <c r="K178" s="8">
         <v>-0.2</v>
@@ -33111,7 +33345,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P178" s="8">
         <v>-0.6</v>
@@ -33138,7 +33372,7 @@
         <v>92.6</v>
       </c>
       <c r="X178" s="8">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="Y178" s="8">
         <v>104.8</v>
@@ -33150,7 +33384,7 @@
         <v>100.3</v>
       </c>
       <c r="AB178" s="8">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="AC178" s="8">
         <v>-2</v>
@@ -33168,16 +33402,16 @@
         <v>0.8</v>
       </c>
       <c r="AH178" s="8">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AI178" s="8">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AJ178" s="8">
         <v>-2.7</v>
       </c>
       <c r="AK178" s="8">
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AL178" s="8">
         <v>85.1</v>
@@ -33251,19 +33485,19 @@
         <v>92.5</v>
       </c>
       <c r="F179" s="8">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="G179" s="8">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="H179" s="8">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="I179" s="8">
         <v>99.5</v>
       </c>
       <c r="J179" s="8">
-        <v>110</v>
+        <v>108.9</v>
       </c>
       <c r="K179" s="8">
         <v>0.3</v>
@@ -33278,7 +33512,7 @@
         <v>-0.2</v>
       </c>
       <c r="O179" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P179" s="8">
         <v>0.3</v>
@@ -33287,7 +33521,7 @@
         <v>0.9</v>
       </c>
       <c r="R179" s="8">
-        <v>-1.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="S179" s="8">
         <v>-0.1</v>
@@ -33296,22 +33530,22 @@
         <v>85.4</v>
       </c>
       <c r="U179" s="8">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="V179" s="8">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="W179" s="8">
         <v>92.2</v>
       </c>
       <c r="X179" s="8">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="Y179" s="8">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="Z179" s="8">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="AA179" s="8">
         <v>99.8</v>
@@ -33323,7 +33557,7 @@
         <v>0.4</v>
       </c>
       <c r="AD179" s="8">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AE179" s="8">
         <v>-1.3</v>
@@ -33332,16 +33566,16 @@
         <v>-0.4</v>
       </c>
       <c r="AG179" s="8">
-        <v>-2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="AH179" s="8">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AI179" s="8">
         <v>1.4</v>
       </c>
       <c r="AJ179" s="8">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AK179" s="8">
         <v>2</v>
@@ -33421,7 +33655,7 @@
         <v>93.8</v>
       </c>
       <c r="G180" s="8">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="H180" s="8">
         <v>92.6</v>
@@ -33430,7 +33664,7 @@
         <v>100.2</v>
       </c>
       <c r="J180" s="8">
-        <v>109.3</v>
+        <v>108.2</v>
       </c>
       <c r="K180" s="8">
         <v>0.7</v>
@@ -33448,7 +33682,7 @@
         <v>-0.9</v>
       </c>
       <c r="P180" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q180" s="8">
         <v>-0.2</v>
@@ -33460,28 +33694,28 @@
         <v>-0.7</v>
       </c>
       <c r="T180" s="8">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="U180" s="8">
         <v>100.2</v>
       </c>
       <c r="V180" s="8">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="W180" s="8">
         <v>92.9</v>
       </c>
       <c r="X180" s="8">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="Y180" s="8">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="Z180" s="8">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AA180" s="8">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AB180" s="8">
         <v>109</v>
@@ -33490,7 +33724,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AD180" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AE180" s="8">
         <v>0.8</v>
@@ -33502,13 +33736,13 @@
         <v>4</v>
       </c>
       <c r="AH180" s="8">
-        <v>-1.1000000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="AI180" s="8">
         <v>-1.8</v>
       </c>
       <c r="AJ180" s="8">
-        <v>-1.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AK180" s="8">
         <v>-2.4</v>
@@ -33585,19 +33819,19 @@
         <v>92.9</v>
       </c>
       <c r="F181" s="8">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="G181" s="8">
         <v>104.5</v>
       </c>
       <c r="H181" s="8">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="I181" s="8">
         <v>103.3</v>
       </c>
       <c r="J181" s="8">
-        <v>108.7</v>
+        <v>107.6</v>
       </c>
       <c r="K181" s="8">
         <v>1</v>
@@ -33618,10 +33852,10 @@
         <v>0.7</v>
       </c>
       <c r="Q181" s="8">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="R181" s="8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S181" s="8">
         <v>-0.5</v>
@@ -33639,43 +33873,43 @@
         <v>92.4</v>
       </c>
       <c r="X181" s="8">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="Y181" s="8">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="Z181" s="8">
-        <v>90</v>
+        <v>89.8</v>
       </c>
       <c r="AA181" s="8">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AB181" s="8">
         <v>103.6</v>
       </c>
       <c r="AC181" s="8">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD181" s="8">
         <v>-1.7</v>
       </c>
       <c r="AE181" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF181" s="8">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AG181" s="8">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AH181" s="8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AI181" s="8">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="AJ181" s="8">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="AK181" s="8">
         <v>-5</v>
@@ -33743,7 +33977,7 @@
         <v>88</v>
       </c>
       <c r="C182" s="8">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="D182" s="8">
         <v>100.1</v>
@@ -33755,22 +33989,22 @@
         <v>93.7</v>
       </c>
       <c r="G182" s="8">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="H182" s="8">
         <v>92.2</v>
       </c>
       <c r="I182" s="8">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="J182" s="8">
-        <v>108.7</v>
+        <v>107.6</v>
       </c>
       <c r="K182" s="8">
         <v>0.5</v>
       </c>
       <c r="L182" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M182" s="8">
         <v>0.6</v>
@@ -33779,10 +34013,10 @@
         <v>0.7</v>
       </c>
       <c r="O182" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P182" s="8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q182" s="8">
         <v>0.2</v>
@@ -33806,22 +34040,22 @@
         <v>93.7</v>
       </c>
       <c r="X182" s="8">
-        <v>93.4</v>
+        <v>93.6</v>
       </c>
       <c r="Y182" s="8">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="Z182" s="8">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="AA182" s="8">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AB182" s="8">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AC182" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD182" s="8">
         <v>3</v>
@@ -33833,19 +34067,19 @@
         <v>1.4</v>
       </c>
       <c r="AG182" s="8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AH182" s="8">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AI182" s="8">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AJ182" s="8">
         <v>3.5</v>
       </c>
       <c r="AK182" s="8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AL182" s="8">
         <v>88.6</v>
@@ -33919,19 +34153,19 @@
         <v>94.4</v>
       </c>
       <c r="F183" s="8">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="G183" s="8">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="H183" s="8">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="I183" s="8">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="J183" s="8">
-        <v>109.7</v>
+        <v>108.6</v>
       </c>
       <c r="K183" s="8">
         <v>1.1000000000000001</v>
@@ -33946,7 +34180,7 @@
         <v>1</v>
       </c>
       <c r="O183" s="8">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P183" s="8">
         <v>0.8</v>
@@ -33955,7 +34189,7 @@
         <v>0.7</v>
       </c>
       <c r="R183" s="8">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="S183" s="8">
         <v>0.9</v>
@@ -33964,7 +34198,7 @@
         <v>88.6</v>
       </c>
       <c r="U183" s="8">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="V183" s="8">
         <v>101</v>
@@ -33973,16 +34207,16 @@
         <v>94.8</v>
       </c>
       <c r="X183" s="8">
-        <v>98.1</v>
+        <v>97.8</v>
       </c>
       <c r="Y183" s="8">
-        <v>104.6</v>
+        <v>104</v>
       </c>
       <c r="Z183" s="8">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="AA183" s="8">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="AB183" s="8">
         <v>112.6</v>
@@ -33991,28 +34225,28 @@
         <v>0.5</v>
       </c>
       <c r="AD183" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE183" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AF183" s="8">
         <v>1.2</v>
       </c>
       <c r="AG183" s="8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AH183" s="8">
-        <v>-2.2000000000000002</v>
+        <v>-2.6</v>
       </c>
       <c r="AI183" s="8">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AJ183" s="8">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="AK183" s="8">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AL183" s="8">
         <v>90.1</v>
@@ -34077,7 +34311,7 @@
         <v>90.8</v>
       </c>
       <c r="C184" s="8">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D184" s="8">
         <v>100.9</v>
@@ -34089,34 +34323,34 @@
         <v>97.1</v>
       </c>
       <c r="G184" s="8">
-        <v>106.3</v>
+        <v>106.5</v>
       </c>
       <c r="H184" s="8">
         <v>93.9</v>
       </c>
       <c r="I184" s="8">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="J184" s="8">
-        <v>111.3</v>
+        <v>110.2</v>
       </c>
       <c r="K184" s="8">
         <v>2</v>
       </c>
       <c r="L184" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M184" s="8">
         <v>0.4</v>
       </c>
       <c r="N184" s="8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O184" s="8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P184" s="8">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="Q184" s="8">
         <v>1.1000000000000001</v>
@@ -34131,55 +34365,55 @@
         <v>89.8</v>
       </c>
       <c r="U184" s="8">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="V184" s="8">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="W184" s="8">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="X184" s="8">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="Y184" s="8">
-        <v>108.5</v>
+        <v>108.9</v>
       </c>
       <c r="Z184" s="8">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="AA184" s="8">
-        <v>96.6</v>
+        <v>96.9</v>
       </c>
       <c r="AB184" s="8">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="AC184" s="8">
         <v>1.4</v>
       </c>
       <c r="AD184" s="8">
-        <v>-1.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AE184" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF184" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AG184" s="8">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AH184" s="8">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AI184" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ184" s="8">
-        <v>-8</v>
+        <v>-7.9</v>
       </c>
       <c r="AK184" s="8">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AL184" s="8">
         <v>90.9</v>
@@ -34253,19 +34487,19 @@
         <v>96.7</v>
       </c>
       <c r="F185" s="8">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="G185" s="8">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="H185" s="8">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="I185" s="8">
         <v>99.7</v>
       </c>
       <c r="J185" s="8">
-        <v>112.3</v>
+        <v>111.2</v>
       </c>
       <c r="K185" s="8">
         <v>1.8</v>
@@ -34280,16 +34514,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O185" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P185" s="8">
         <v>-1</v>
       </c>
       <c r="Q185" s="8">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R185" s="8">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="S185" s="8">
         <v>0.9</v>
@@ -34301,52 +34535,52 @@
         <v>102.7</v>
       </c>
       <c r="V185" s="8">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="W185" s="8">
         <v>97.2</v>
       </c>
       <c r="X185" s="8">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="Y185" s="8">
-        <v>103.7</v>
+        <v>104.2</v>
       </c>
       <c r="Z185" s="8">
-        <v>96.6</v>
+        <v>96.2</v>
       </c>
       <c r="AA185" s="8">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AB185" s="8">
         <v>114.3</v>
       </c>
       <c r="AC185" s="8">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD185" s="8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AE185" s="8">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AF185" s="8">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AG185" s="8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AH185" s="8">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AI185" s="8">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AJ185" s="8">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AK185" s="8">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AL185" s="8">
         <v>90</v>
@@ -34411,7 +34645,7 @@
         <v>93.5</v>
       </c>
       <c r="C186" s="8">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="D186" s="8">
         <v>101.8</v>
@@ -34420,19 +34654,19 @@
         <v>97.4</v>
       </c>
       <c r="F186" s="8">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="G186" s="8">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="H186" s="8">
         <v>99.1</v>
       </c>
       <c r="I186" s="8">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="J186" s="8">
-        <v>111.6</v>
+        <v>110.5</v>
       </c>
       <c r="K186" s="8">
         <v>1.1000000000000001</v>
@@ -34450,13 +34684,13 @@
         <v>-0.2</v>
       </c>
       <c r="P186" s="8">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q186" s="8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R186" s="8">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S186" s="8">
         <v>-0.6</v>
@@ -34474,43 +34708,43 @@
         <v>97.6</v>
       </c>
       <c r="X186" s="8">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="Y186" s="8">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="Z186" s="8">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="AA186" s="8">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AB186" s="8">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="AC186" s="8">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD186" s="8">
         <v>0.3</v>
       </c>
       <c r="AE186" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AF186" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AG186" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH186" s="8">
+        <v>-1.4</v>
+      </c>
+      <c r="AI186" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AJ186" s="8">
         <v>0.5</v>
-      </c>
-      <c r="AG186" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AH186" s="8">
-        <v>-0.6</v>
-      </c>
-      <c r="AI186" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="AJ186" s="8">
-        <v>0.6</v>
       </c>
       <c r="AK186" s="8">
         <v>-1.3</v>
@@ -34581,25 +34815,25 @@
         <v>102.2</v>
       </c>
       <c r="D187" s="8">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="E187" s="8">
         <v>97.7</v>
       </c>
       <c r="F187" s="8">
-        <v>97.4</v>
+        <v>97.2</v>
       </c>
       <c r="G187" s="8">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="H187" s="8">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="I187" s="8">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="J187" s="8">
-        <v>110</v>
+        <v>108.9</v>
       </c>
       <c r="K187" s="8">
         <v>0.6</v>
@@ -34608,13 +34842,13 @@
         <v>-0.2</v>
       </c>
       <c r="M187" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="N187" s="8">
         <v>0.3</v>
       </c>
       <c r="O187" s="8">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="P187" s="8">
         <v>-1.2</v>
@@ -34623,7 +34857,7 @@
         <v>1.5</v>
       </c>
       <c r="R187" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="S187" s="8">
         <v>-1.4</v>
@@ -34632,52 +34866,52 @@
         <v>93.2</v>
       </c>
       <c r="U187" s="8">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="V187" s="8">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="W187" s="8">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="X187" s="8">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="Y187" s="8">
-        <v>104.3</v>
+        <v>103.3</v>
       </c>
       <c r="Z187" s="8">
-        <v>102</v>
+        <v>102.2</v>
       </c>
       <c r="AA187" s="8">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AB187" s="8">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="AC187" s="8">
         <v>0.1</v>
       </c>
       <c r="AD187" s="8">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AE187" s="8">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AF187" s="8">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AG187" s="8">
-        <v>-0.4</v>
+        <v>-1.4</v>
       </c>
       <c r="AH187" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AI187" s="8">
         <v>2.7</v>
       </c>
       <c r="AJ187" s="8">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AK187" s="8">
         <v>-3.7</v>
@@ -34751,22 +34985,22 @@
         <v>101.5</v>
       </c>
       <c r="E188" s="8">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="F188" s="8">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="G188" s="8">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="H188" s="8">
         <v>100.7</v>
       </c>
       <c r="I188" s="8">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="J188" s="8">
-        <v>107.1</v>
+        <v>106.1</v>
       </c>
       <c r="K188" s="8">
         <v>1</v>
@@ -34775,19 +35009,19 @@
         <v>-0.8</v>
       </c>
       <c r="M188" s="8">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="N188" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O188" s="8">
         <v>0.3</v>
       </c>
       <c r="P188" s="8">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="Q188" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R188" s="8">
         <v>-1.3</v>
@@ -34799,55 +35033,55 @@
         <v>95.1</v>
       </c>
       <c r="U188" s="8">
+        <v>101.6</v>
+      </c>
+      <c r="V188" s="8">
+        <v>100.9</v>
+      </c>
+      <c r="W188" s="8">
+        <v>97.9</v>
+      </c>
+      <c r="X188" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="Y188" s="8">
         <v>101.3</v>
       </c>
-      <c r="V188" s="8">
-        <v>100.7</v>
-      </c>
-      <c r="W188" s="8">
-        <v>97.8</v>
-      </c>
-      <c r="X188" s="8">
-        <v>97.8</v>
-      </c>
-      <c r="Y188" s="8">
-        <v>100.8</v>
-      </c>
       <c r="Z188" s="8">
-        <v>99.6</v>
+        <v>99.8</v>
       </c>
       <c r="AA188" s="8">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
       <c r="AB188" s="8">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="AC188" s="8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD188" s="8">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="AE188" s="8">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AF188" s="8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AG188" s="8">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="AH188" s="8">
-        <v>-3.3</v>
+        <v>-1.9</v>
       </c>
       <c r="AI188" s="8">
         <v>-2.4</v>
       </c>
       <c r="AJ188" s="8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AK188" s="8">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="AL188" s="8">
         <v>96.1</v>
@@ -34915,25 +35149,25 @@
         <v>100.6</v>
       </c>
       <c r="D189" s="8">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E189" s="8">
         <v>98.5</v>
       </c>
       <c r="F189" s="8">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="G189" s="8">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="H189" s="8">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I189" s="8">
-        <v>99.1</v>
+        <v>99</v>
       </c>
       <c r="J189" s="8">
-        <v>104.1</v>
+        <v>103.1</v>
       </c>
       <c r="K189" s="8">
         <v>1.9</v>
@@ -34948,73 +35182,73 @@
         <v>0.6</v>
       </c>
       <c r="O189" s="8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P189" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q189" s="8">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="R189" s="8">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="S189" s="8">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="T189" s="8">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="U189" s="8">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="V189" s="8">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="W189" s="8">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="X189" s="8">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="Y189" s="8">
-        <v>101.6</v>
+        <v>102.4</v>
       </c>
       <c r="Z189" s="8">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="AA189" s="8">
-        <v>97.4</v>
+        <v>96.8</v>
       </c>
       <c r="AB189" s="8">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC189" s="8">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD189" s="8">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AE189" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AF189" s="8">
         <v>0.5</v>
       </c>
       <c r="AG189" s="8">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AH189" s="8">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI189" s="8">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AJ189" s="8">
-        <v>-4.2</v>
+        <v>-5.3</v>
       </c>
       <c r="AK189" s="8">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AL189" s="8">
         <v>92.9</v>
@@ -35097,7 +35331,7 @@
         <v>98.1</v>
       </c>
       <c r="U190" s="8">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="V190" s="8">
         <v>101.7</v>
@@ -35106,46 +35340,46 @@
         <v>99.4</v>
       </c>
       <c r="X190" s="8">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="Y190" s="8">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="Z190" s="8">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="AA190" s="8">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AB190" s="8">
         <v>99.8</v>
       </c>
       <c r="AC190" s="8">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD190" s="8">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AE190" s="8">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AF190" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="AG190" s="8">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AH190" s="8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI190" s="8">
-        <v>-1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="AJ190" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AK190" s="8">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AL190" s="8">
         <v>99.2</v>
@@ -35228,52 +35462,52 @@
         <v>100.3</v>
       </c>
       <c r="U191" s="8">
+        <v>100</v>
+      </c>
+      <c r="V191" s="8">
+        <v>101.2</v>
+      </c>
+      <c r="W191" s="8">
         <v>100.3</v>
       </c>
-      <c r="V191" s="8">
-        <v>101.1</v>
-      </c>
-      <c r="W191" s="8">
+      <c r="X191" s="8">
+        <v>97.9</v>
+      </c>
+      <c r="Y191" s="8">
+        <v>104.1</v>
+      </c>
+      <c r="Z191" s="8">
+        <v>97.9</v>
+      </c>
+      <c r="AA191" s="8">
         <v>100.4</v>
-      </c>
-      <c r="X191" s="8">
-        <v>98.7</v>
-      </c>
-      <c r="Y191" s="8">
-        <v>105.2</v>
-      </c>
-      <c r="Z191" s="8">
-        <v>97.6</v>
-      </c>
-      <c r="AA191" s="8">
-        <v>100.1</v>
       </c>
       <c r="AB191" s="8">
         <v>100</v>
       </c>
       <c r="AC191" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD191" s="8">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AE191" s="8">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AF191" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AG191" s="8">
-        <v>-1.7</v>
+        <v>-3</v>
       </c>
       <c r="AH191" s="8">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="AI191" s="8">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AJ191" s="8">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AK191" s="8">
         <v>0.2</v>
@@ -35356,58 +35590,58 @@
       <c r="R192" s="8"/>
       <c r="S192" s="8"/>
       <c r="T192" s="8">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="U192" s="8">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="V192" s="8">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="W192" s="8">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="X192" s="8">
-        <v>104.9</v>
+        <v>104.6</v>
       </c>
       <c r="Y192" s="8">
-        <v>98.1</v>
+        <v>98.4</v>
       </c>
       <c r="Z192" s="8">
-        <v>98.6</v>
+        <v>98.9</v>
       </c>
       <c r="AA192" s="8">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="AB192" s="8">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="AC192" s="8">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD192" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AE192" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AF192" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG192" s="8">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AH192" s="8">
-        <v>-6.7</v>
+        <v>-5.4</v>
       </c>
       <c r="AI192" s="8">
         <v>1</v>
       </c>
       <c r="AJ192" s="8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK192" s="8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AL192" s="8">
         <v>101.4</v>
@@ -35487,58 +35721,58 @@
       <c r="R193" s="8"/>
       <c r="S193" s="8"/>
       <c r="T193" s="8">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="U193" s="8">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="V193" s="8">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="W193" s="8">
         <v>100.7</v>
       </c>
       <c r="X193" s="8">
+        <v>102.8</v>
+      </c>
+      <c r="Y193" s="8">
+        <v>105.2</v>
+      </c>
+      <c r="Z193" s="8">
+        <v>103.6</v>
+      </c>
+      <c r="AA193" s="8">
         <v>102.7</v>
       </c>
-      <c r="Y193" s="8">
-        <v>104.3</v>
-      </c>
-      <c r="Z193" s="8">
-        <v>104.3</v>
-      </c>
-      <c r="AA193" s="8">
-        <v>103.7</v>
-      </c>
       <c r="AB193" s="8">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="AC193" s="8">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AD193" s="8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AE193" s="8">
-        <v>-1.9</v>
+        <v>-2.5</v>
       </c>
       <c r="AF193" s="8">
         <v>-0.1</v>
       </c>
       <c r="AG193" s="8">
-        <v>-2.1</v>
+        <v>-1.7</v>
       </c>
       <c r="AH193" s="8">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AI193" s="8">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AJ193" s="8">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AK193" s="8">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AL193" s="8">
         <v>96.3</v>
@@ -35618,10 +35852,10 @@
       <c r="R194" s="8"/>
       <c r="S194" s="8"/>
       <c r="T194" s="8">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="U194" s="8">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="V194" s="8">
         <v>98</v>
@@ -35630,46 +35864,46 @@
         <v>98.2</v>
       </c>
       <c r="X194" s="8">
-        <v>93.8</v>
+        <v>94.7</v>
       </c>
       <c r="Y194" s="8">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="Z194" s="8">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="AA194" s="8">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="AB194" s="8">
         <v>95.7</v>
       </c>
       <c r="AC194" s="8">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD194" s="8">
-        <v>-8.1999999999999993</v>
+        <v>-7.8</v>
       </c>
       <c r="AE194" s="8">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AF194" s="8">
         <v>-2.5</v>
       </c>
       <c r="AG194" s="8">
-        <v>-8.6999999999999993</v>
+        <v>-7.9</v>
       </c>
       <c r="AH194" s="8">
-        <v>-11.4</v>
+        <v>-12.3</v>
       </c>
       <c r="AI194" s="8">
-        <v>-4.5999999999999996</v>
+        <v>-3.8</v>
       </c>
       <c r="AJ194" s="8">
-        <v>-8.9</v>
+        <v>-8</v>
       </c>
       <c r="AK194" s="8">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AL194" s="8">
         <v>100.9</v>
@@ -35752,55 +35986,55 @@
         <v>98.1</v>
       </c>
       <c r="U195" s="8">
-        <v>99.1</v>
+        <v>98.9</v>
       </c>
       <c r="V195" s="8">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="W195" s="8">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="X195" s="8">
-        <v>105.8</v>
+        <v>104.9</v>
       </c>
       <c r="Y195" s="8">
-        <v>87.7</v>
+        <v>87</v>
       </c>
       <c r="Z195" s="8">
-        <v>102.4</v>
+        <v>102.8</v>
       </c>
       <c r="AA195" s="8">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="AB195" s="8">
         <v>101.6</v>
       </c>
       <c r="AC195" s="8">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD195" s="8">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AE195" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AF195" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG195" s="8">
-        <v>12.8</v>
+        <v>10.8</v>
       </c>
       <c r="AH195" s="8">
-        <v>-5.0999999999999996</v>
+        <v>-5.7</v>
       </c>
       <c r="AI195" s="8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AJ195" s="8">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AK195" s="8">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AL195" s="8">
         <v>99.8</v>
@@ -35880,58 +36114,58 @@
       <c r="R196" s="8"/>
       <c r="S196" s="8"/>
       <c r="T196" s="8">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="U196" s="8">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="V196" s="8">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="W196" s="8">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="X196" s="8">
-        <v>98.4</v>
+        <v>98</v>
       </c>
       <c r="Y196" s="8">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="Z196" s="8">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AA196" s="8">
-        <v>104.3</v>
+        <v>105.2</v>
       </c>
       <c r="AB196" s="8">
-        <v>103.3</v>
+        <v>103.8</v>
       </c>
       <c r="AC196" s="8">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD196" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE196" s="8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AF196" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AG196" s="8">
-        <v>-7</v>
+        <v>-6.6</v>
       </c>
       <c r="AH196" s="8">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI196" s="8">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="AJ196" s="8">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="AK196" s="8">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AL196" s="8">
         <v>98.9</v>
@@ -35955,7 +36189,7 @@
         <v>105.3</v>
       </c>
       <c r="AS196" s="8">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AT196" s="8">
         <v>107.8</v>
@@ -36011,58 +36245,58 @@
       <c r="R197" s="8"/>
       <c r="S197" s="8"/>
       <c r="T197" s="8">
+        <v>97.9</v>
+      </c>
+      <c r="U197" s="8">
+        <v>102.7</v>
+      </c>
+      <c r="V197" s="8">
         <v>97.6</v>
       </c>
-      <c r="U197" s="8">
-        <v>103.1</v>
-      </c>
-      <c r="V197" s="8">
-        <v>98.1</v>
-      </c>
       <c r="W197" s="8">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="X197" s="8">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="Y197" s="8">
-        <v>87.4</v>
+        <v>88.1</v>
       </c>
       <c r="Z197" s="8">
-        <v>108.1</v>
+        <v>107.4</v>
       </c>
       <c r="AA197" s="8">
-        <v>109.4</v>
+        <v>107.6</v>
       </c>
       <c r="AB197" s="8">
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="AC197" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD197" s="8">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AE197" s="8">
-        <v>-0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="AF197" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AG197" s="8">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AH197" s="8">
-        <v>-4.7</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AI197" s="8">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="AJ197" s="8">
-        <v>4.9000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AK197" s="8">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AL197" s="8">
         <v>94.2</v>
@@ -36142,10 +36376,10 @@
       <c r="R198" s="8"/>
       <c r="S198" s="8"/>
       <c r="T198" s="8">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="U198" s="8">
-        <v>103.9</v>
+        <v>104.3</v>
       </c>
       <c r="V198" s="8">
         <v>99.7</v>
@@ -36154,46 +36388,46 @@
         <v>99.6</v>
       </c>
       <c r="X198" s="8">
-        <v>103.4</v>
+        <v>104.5</v>
       </c>
       <c r="Y198" s="8">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="Z198" s="8">
-        <v>112</v>
+        <v>112.2</v>
       </c>
       <c r="AA198" s="8">
-        <v>107.2</v>
+        <v>107.6</v>
       </c>
       <c r="AB198" s="8">
         <v>103.5</v>
       </c>
       <c r="AC198" s="8">
-        <v>-0.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AD198" s="8">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AE198" s="8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AF198" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AG198" s="8">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AH198" s="8">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI198" s="8">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AJ198" s="8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK198" s="8">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="AL198" s="8">
         <v>97.4</v>
@@ -36276,55 +36510,55 @@
         <v>98.3</v>
       </c>
       <c r="U199" s="8">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="V199" s="8">
-        <v>99.6</v>
+        <v>99.8</v>
       </c>
       <c r="W199" s="8">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="X199" s="8">
-        <v>109.3</v>
+        <v>108.2</v>
       </c>
       <c r="Y199" s="8">
-        <v>91.6</v>
+        <v>91</v>
       </c>
       <c r="Z199" s="8">
-        <v>106.1</v>
+        <v>106.6</v>
       </c>
       <c r="AA199" s="8">
-        <v>104.2</v>
+        <v>104.6</v>
       </c>
       <c r="AB199" s="8">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC199" s="8">
         <v>1.5</v>
       </c>
       <c r="AD199" s="8">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="AE199" s="8">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AF199" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AG199" s="8">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AH199" s="8">
-        <v>-2.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AI199" s="8">
-        <v>-5.3</v>
+        <v>-5</v>
       </c>
       <c r="AJ199" s="8">
         <v>-2.8</v>
       </c>
       <c r="AK199" s="8">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="AL199" s="8">
         <v>100.1</v>
@@ -36404,61 +36638,61 @@
       <c r="R200" s="8"/>
       <c r="S200" s="8"/>
       <c r="T200" s="8">
-        <v>97.1</v>
+        <v>96.7</v>
       </c>
       <c r="U200" s="8">
-        <v>104.5</v>
+        <v>104.8</v>
       </c>
       <c r="V200" s="8">
-        <v>98.7</v>
+        <v>99.1</v>
       </c>
       <c r="W200" s="8">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="X200" s="8">
-        <v>111.4</v>
+        <v>110.4</v>
       </c>
       <c r="Y200" s="8">
-        <v>93.5</v>
+        <v>94.2</v>
       </c>
       <c r="Z200" s="8">
-        <v>105.8</v>
+        <v>106.5</v>
       </c>
       <c r="AA200" s="8">
-        <v>104.5</v>
+        <v>105.4</v>
       </c>
       <c r="AB200" s="8">
-        <v>104.8</v>
+        <v>105.2</v>
       </c>
       <c r="AC200" s="8">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="AD200" s="8">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE200" s="8">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="AF200" s="8">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AG200" s="8">
         <v>1.9</v>
       </c>
       <c r="AH200" s="8">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AI200" s="8">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ200" s="8">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AK200" s="8">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AL200" s="8">
-        <v>98.3</v>
+        <v>98.1</v>
       </c>
       <c r="AM200" s="8">
         <v>108.5</v>
@@ -36470,46 +36704,177 @@
         <v>101.8</v>
       </c>
       <c r="AP200" s="8">
-        <v>118.3</v>
+        <v>117.8</v>
       </c>
       <c r="AQ200" s="8">
-        <v>93.4</v>
+        <v>94.2</v>
       </c>
       <c r="AR200" s="8">
-        <v>109</v>
+        <v>109.5</v>
       </c>
       <c r="AS200" s="8">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="AT200" s="8">
-        <v>109.5</v>
+        <v>109.2</v>
       </c>
       <c r="AU200" s="8">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AV200" s="8">
         <v>3.6</v>
       </c>
       <c r="AW200" s="8">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AX200" s="8">
         <v>0</v>
       </c>
       <c r="AY200" s="8">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="AZ200" s="8">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="BA200" s="8">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="BB200" s="8">
-        <v>-0.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="BC200" s="8">
-        <v>6.1</v>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A201" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="8"/>
+      <c r="P201" s="8"/>
+      <c r="Q201" s="8"/>
+      <c r="R201" s="8"/>
+      <c r="S201" s="8"/>
+      <c r="T201" s="8">
+        <v>94.9</v>
+      </c>
+      <c r="U201" s="8">
+        <v>105.9</v>
+      </c>
+      <c r="V201" s="8">
+        <v>100</v>
+      </c>
+      <c r="W201" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="X201" s="8">
+        <v>109.7</v>
+      </c>
+      <c r="Y201" s="8">
+        <v>91.4</v>
+      </c>
+      <c r="Z201" s="8">
+        <v>104.6</v>
+      </c>
+      <c r="AA201" s="8">
+        <v>113.4</v>
+      </c>
+      <c r="AB201" s="8">
+        <v>106.9</v>
+      </c>
+      <c r="AC201" s="8">
+        <v>-1.9</v>
+      </c>
+      <c r="AD201" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE201" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AF201" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="AG201" s="8">
+        <v>-0.6</v>
+      </c>
+      <c r="AH201" s="8">
+        <v>-3</v>
+      </c>
+      <c r="AI201" s="8">
+        <v>-1.7</v>
+      </c>
+      <c r="AJ201" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="AK201" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AL201" s="8">
+        <v>91.3</v>
+      </c>
+      <c r="AM201" s="8">
+        <v>100.8</v>
+      </c>
+      <c r="AN201" s="8">
+        <v>101.1</v>
+      </c>
+      <c r="AO201" s="8">
+        <v>96</v>
+      </c>
+      <c r="AP201" s="8">
+        <v>106</v>
+      </c>
+      <c r="AQ201" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="AR201" s="8">
+        <v>98.1</v>
+      </c>
+      <c r="AS201" s="8">
+        <v>106.3</v>
+      </c>
+      <c r="AT201" s="8">
+        <v>100.2</v>
+      </c>
+      <c r="AU201" s="8">
+        <v>-7</v>
+      </c>
+      <c r="AV201" s="8">
+        <v>-7.1</v>
+      </c>
+      <c r="AW201" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="AX201" s="8">
+        <v>-5.6</v>
+      </c>
+      <c r="AY201" s="8">
+        <v>-10</v>
+      </c>
+      <c r="AZ201" s="8">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="BA201" s="8">
+        <v>-10.4</v>
+      </c>
+      <c r="BB201" s="8">
+        <v>-1.7</v>
+      </c>
+      <c r="BC201" s="8">
+        <v>-8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
